--- a/AnalyzedORFS/exported_json_data.xlsx
+++ b/AnalyzedORFS/exported_json_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,22 +501,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Porcine circovirus 1</t>
+          <t>Porcine circovirus 3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>atggataccggtcacacagtctcagtagatcatcccaaggtaaccagccataaaaatcatccaaaacaacaacttcttctccatgatatccatcccaccacttatttctactag</t>
+          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MDTGHTVSVDHPKVTSHKNHPKQQLLLHDIHPTTYFY</t>
+          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -524,35 +524,29 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2" t="n">
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>694</v>
+        <v>470</v>
       </c>
       <c r="I2" t="n">
-        <v>580</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
+        <v>239</v>
+      </c>
+      <c r="J2" t="n">
+        <v>231</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga', 'MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH', 'right to left', '1', 612, -9, '621', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
-        </is>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.5657894736842105</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga', 'MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH', 'right to left', '1', 612, -9, '621', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
+          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga', 'MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH', 'right to left', '1', '658', '37', '621', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
         </is>
       </c>
     </row>
@@ -562,22 +556,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Porcine circovirus 1</t>
+          <t>Porcine circovirus 3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>atggataccggtcacacagtctcagtagatcatcccaaggtaaccagccataaaaatcatccaaaacaacaacttcttctccatgatatccatcccaccacttatttctactag</t>
+          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MDTGHTVSVDHPKVTSHKNHPKQQLLLHDIHPTTYFY</t>
+          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -585,35 +579,1964 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>470</v>
+      </c>
+      <c r="I3" t="n">
+        <v>239</v>
+      </c>
+      <c r="J3" t="n">
+        <v>231</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atgttaaccacctcaaattcaacatcggccagttcctccccccctcaggcggcaccaacccactacccctacctttccaatactaccgtattagaaaggctaaatatgaattttaccccagagaccccatcacctctaatcaaagaggtgttgggtccactgttgttatcttggatgccaactttgtaa', 'MLTTSNSTSASSSPPQAAPTHYPYLSNTTVLERLNMNFTPETPSPLIKEVLGPLLLSWMPTL', 'right to left', '2', '1518', '1329', '189', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>470</v>
+      </c>
+      <c r="I4" t="n">
+        <v>239</v>
+      </c>
+      <c r="J4" t="n">
+        <v>231</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.3947368421052631</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtga', 'MTCTAVFQSRCCIFPLTFKSSASPRKFLTYVTGNCSATVTKDPVSKRVLTAVDKSLRFPWFRGAPHSISMWPSLLQYSLFCWSVPFAFSMWQRAPKYHFTLLKVCFLAKFANPWR', 'right to left', '2', '552', '204', '348', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>470</v>
+      </c>
+      <c r="I5" t="n">
+        <v>239</v>
+      </c>
+      <c r="J5" t="n">
+        <v>231</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.6973684210526315</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactga', 'MPSKKSGPQPHKRWVFTLNNPSEEEKNKIRELPISLFDYFVCGEEGLEEGRTPHLQGFANFAKKQTFNKVKWYFGARCHIEKAKGTDQQNKEYCSKEGHILIECGAPRNQGKRSDLSTAVSTLLETGSLVTVAEQFPVTYVRNFRGLAELLKVSGKMQQRDWKTAVHVIVGPPGCGKSQWARNFAEPSDTYWKPSRNKWWDGYHGEEVVVLDDFYGWLPWDDLLRLCDRYPLTVETKGGTVPFLARSILITSNQAPQEWYSSTAVPAVEALYRRITTLQFWKTAGEQSTEVPEGRFEAVDPPCALFPYKINY', 'left to right', '0', '46', '985', '939', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>470</v>
+      </c>
+      <c r="I6" t="n">
+        <v>239</v>
+      </c>
+      <c r="J6" t="n">
+        <v>231</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.3815789473684211</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtag', 'MEPQLVSFIIWVEPINCLVQLRFGGEVPGVVGKGLPYGVAGGVVNIGVIGQVGGGGYKVGIQDNNSGPNTSLIRGDGVSGVKFIFSLSNTVVLER', 'left to right', '1', '1162', '1450', '288', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>470</v>
+      </c>
+      <c r="I7" t="n">
+        <v>239</v>
+      </c>
+      <c r="J7" t="n">
+        <v>231</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 2 isolate BR, complete genome.', 'Porcine circovirus 2', 'atgacgtatccaaggaggcgttaccggagaagaagacaccgcccccgcagccatcttggccagatcctccgccgccgcccctggctcgtccacccccgccaccgttaccgctggagaaggaaaaatggcatcttcaacacccgcctctcccgcaccttcggatatactatcaagcgaaccacagtcaaaacgccctcctgggcggtggacatgatgagattcaatattaatgactttcttcccccaggagggggctcaaacccccgctctgtgccctttgaatactacagaataagaaaggttaaggttgaattctggccctgctccccgatcacccagggtgacaggggagtgggctccagtgctgttattctagatgataactttgtaacaaaggccacagccctcacctatgacccctatgtaaactactcctcccgccataccataacccagcccttctcctaccactcccgctactttacccccaaacctgtcctagattccactattgattacttccaaccaaacaacaaaagaaatcagctgtggctgagactacaaactactggaaatgtagaccacgtaggcctcggcactgcgttcgaaaacagtatatacgaccaggaatacaatatccgtgtaaccatgtatgtacaattcagagaatttaatcttaaagaccccccacttaacccctaa', 'MTYPRRRYRRRRHRPRSHLGQILRRRPWLVHPRHRYRWRRKNGIFNTRLSRTFGYTIKRTTVKTPSWAVDMMRFNINDFLPPGGGSNPRSVPFEYYRIRKVKVEFWPCSPITQGDRGVGSSAVILDDNFVTKATALTYDPYVNYSSRHTITQPFSYHSRYFTPKPVLDSTIDYFQPNNKRNQLWLRLQTTGNVDHVGLGTAFENSIYDQEYNIRVTMYVQFREFNLKDPPLNP', 'right to left', '0', '1734', '1032', '702', 'accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>470</v>
+      </c>
+      <c r="I8" t="n">
+        <v>239</v>
+      </c>
+      <c r="J8" t="n">
+        <v>231</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.4736842105263157</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 2 isolate BR, complete genome.', 'Porcine circovirus 2', 'atggtaaccatcccaccacttgtttctaggtggtttccagtatgtggtttccgggtctgcaaaattagcagcccatttgcttttaccacacccaggtggccccacaatgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctgagatctaggagctccacactccatcagtaa', 'MVTIPPLVSRWFPVCGFRVCKISSPFAFTTPRWPHNDVYISLPITLLHFPAHFQKFSQPAEISDKRYRVLLCNGHQTPALQQGTHSSRQVTPLSLRSRSSTLHQ', 'right to left', '1', '671', '356', '315', 'accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>470</v>
+      </c>
+      <c r="I9" t="n">
+        <v>239</v>
+      </c>
+      <c r="J9" t="n">
+        <v>231</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.6973684210526315</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 2 isolate BR, complete genome.', 'Porcine circovirus 2', 'atgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactga', 'MPSKKNGRSGPQPHKRWVFTLNNPSEDERKKIRDLPISLFDYFIVGEEGNEEGRTPHLQGFANFVKKQTFNKVKWYLGARCHIEKAKGTDQQNKEYCSKEGNLLMECGAPRSQGQRSDLSTAVSTLLESGSLVTVAEQHPVTFVRNFRGLAELLKVSGKMQKRDWKTNVHVIVGPPGCGKSKWAANFADPETTYWKPPRNKWWDGYHGEEVVVIDDFYGWLPWDDLLRLCDRYPLTVETKGGTVPFLARSILITSNQTPLEWYSSTAVPAVEALYRRITSLVFWKNATEQSTEEGGQFVTLSPPCPEFPYEINY', 'left to right', '0', '50', '995', '945', 'accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>470</v>
+      </c>
+      <c r="I10" t="n">
+        <v>239</v>
+      </c>
+      <c r="J10" t="n">
+        <v>231</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.4473684210526316</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctag', 'MRGRLPVPAPEAQRERARGDTACRHRRGQIYIYFHLENGLVTNPNFFGAVEVCHSSFFRDINAPKQCSPLNGGVICVEPWGGSGEKEEALSWVSAGSSRQKWFGGEVTAVFFFRSHNFTSGTFRIRVVLEPSVCGPGAV', 'left to right', '1', '1230', '1650', '420', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>470</v>
+      </c>
+      <c r="I11" t="n">
+        <v>239</v>
+      </c>
+      <c r="J11" t="n">
+        <v>231</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atggggagcactgctttggagcatttatgtcccggaaaaaactggaatgacagacttctacggcaccaaagaagtttggattcgttacaagtccgttctctaagtgaaaataaatataaatctgacccctccggtggcgacaagccgtgtcccctcgcgcgcgctcccgctgcgcttcgggtgcgggcacaggtaaacgccctcgcatgtggggaccccatcccccacatgcttcggtgggggcgacaagccgtggctagggggctgcccacccaccctcccaataaatacccccaccccaacgcaataattgtacacaagtgcaaataa', 'MGSTALEHLCPGKNWNDRLLRHQRSLDSLQVRSLSENKYKSDPSGGDKPCPLARAPAALRVRAQVNALACGDPIPHMLRWGRQAVARGLPTHPPNKYPHPNAIIVHKCK', 'right to left', '2', '1438', '1108', '330', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>470</v>
+      </c>
+      <c r="I12" t="n">
+        <v>239</v>
+      </c>
+      <c r="J12" t="n">
+        <v>231</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>0.986842105263158</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa', 'MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP', 'right to left', '1', '1078', '847', '231', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>470</v>
+      </c>
+      <c r="I13" t="n">
+        <v>239</v>
+      </c>
+      <c r="J13" t="n">
+        <v>231</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>0.3552631578947368</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atgacaataaaagtccttatcttcaggacactcgtagcaccacaaaaactcagttatccagtccccgtcctgcggcatcaaaacacgaggccgcttcatcatccactgcccggtatatccactcacacggtgcggagcatccataatgggataccactttttctccctacagacctccgtggatccgggttccgaggtgccgggtaa', 'MTIKVLIFRTLVAPQKLSYPVPVLRHQNTRPLHHPLPGISTHTVRSIHNGIPLFLPTDLRGSGFRGAG', 'right to left', '1', '205', '-2', '207', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>470</v>
+      </c>
+      <c r="I14" t="n">
+        <v>239</v>
+      </c>
+      <c r="J14" t="n">
+        <v>231</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactga', 'MDAPHRVSGYTGQWMMKRPRVLMPQDGDWITEFLWCYECPEDKDFYCHPILGPEGKPETQVVFYDKQLDPDRVGIYCGVWRQYSEIPYYRQRGWKKRYPTLARVREFQEQKATQLGEALTRIWSGPSGAGEGEPQRGQRVLQERGGLPRDWRRFLFGYQIGSSSSSSDSDGDVGKSD', 'left to right', '0', '61', '595', '534', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>470</v>
+      </c>
+      <c r="I15" t="n">
+        <v>239</v>
+      </c>
+      <c r="J15" t="n">
+        <v>231</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>0.5921052631578947</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atgagacacagagctatattcagaagaagaccccgcccaaggagacgacgacgccacagaaggcgctatgccagaagacgactattcattaggaggcccacagctggcacatactacacaaagaaatactccacaatgaacgtcatatccgttggaacccctcagaataacaagccctggcacgccaaccacttcattacccgcctaaacgaatgggaaactgcaattacctttgaatattataagatactaaaaatgaaagttacactcagccctgtaatttctccggctcagcaaacaaaaactatgttcgggcacacagccatagatctagacggcgcctggaccacaaacacttggctccaagacgacccttatgcggaaagttccactcgtaaagttatgacttctaaaaaaaaacacagccgttacttcacccccaaaccacttctggcgggaactaccagcgctcacccaggacaaagcctcttctttttctccagacccaccccatggctcaacacatatgaccccaccgttcaatggggagcactgctttggagcatttatgtcccggaaaaaactggaatgacagacttctacggcaccaaagaagtttggattcgttacaagtccgttctctaa', 'MRHRAIFRRRPRPRRRRRHRRRYARRRLFIRRPTAGTYYTKKYSTMNVISVGTPQNNKPWHANHFITRLNEWETAITFEYYKILKMKVTLSPVISPAQQTKTMFGHTAIDLDGAWTTNTWLQDDPYAESSTRKVMTSKKKHSRYFTPKPLLAGTTSAHPGQSLFFFSRPTPWLNTYDPTVQWGALLWSIYVPEKTGMTDFYGTKEVWIRYKSVL', 'right to left', '0', '1980', '1335', '645', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>470</v>
+      </c>
+      <c r="I16" t="n">
+        <v>239</v>
+      </c>
+      <c r="J16" t="n">
+        <v>231</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>0.4605263157894737</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattga', 'MPAVFIRYGRGLRDFCGVMGLGKPRDFKTEVYVFIGPPGCGKTREACADAAARELQLYFKPRGPWWDGYNGEGAVILDDFYGWVPFDELLRIGDRYPLRVPVKGGFVNFVAKVLYITSNVVPEEWYSSENIRGKLEALFRRFTKVVCWGEGGVKKDMETVYPINY', 'left to right', '0', '608', '1106', '498', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>694</v>
-      </c>
-      <c r="I3" t="n">
-        <v>580</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtga', 'MTCTAVFQSRCCIFPLTFKSSASPRKFLTYVTGNCSATVTKDPVSKRVLTAVDKSLRFPWFRGAPHSISMWPSLLQYSLFCWSVPFAFSMWQRAPKYHFTLLKVCFLAKFANPWR', 'right to left', '2', 506, 158, '348', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtga', 'MTCTAVFQSRCCIFPLTFKSSASPRKFLTYVTGNCSATVTKDPVSKRVLTAVDKSLRFPWFRGAPHSISMWPSLLQYSLFCWSVPFAFSMWQRAPKYHFTLLKVCFLAKFANPWR', 'right to left', '2', 506, 158, '348', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
+      <c r="H17" t="n">
+        <v>515</v>
+      </c>
+      <c r="I17" t="n">
+        <v>335</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0.559322033898305</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 2 isolate BR, complete genome.', 'Porcine circovirus 2', 'atggtaaccatcccaccacttgtttctaggtggtttccagtatgtggtttccgggtctgcaaaattagcagcccatttgcttttaccacacccaggtggccccacaatgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctgagatctaggagctccacactccatcagtaa', 'MVTIPPLVSRWFPVCGFRVCKISSPFAFTTPRWPHNDVYISLPITLLHFPAHFQKFSQPAEISDKRYRVLLCNGHQTPALQQGTHSSRQVTPLSLRSRSSTLHQ', 'right to left', '1', 621, 306, '315', 'accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>515</v>
+      </c>
+      <c r="I18" t="n">
+        <v>335</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0.6610169491525424</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atgacgtggccaaggaggcgttaccgcagaagaaggacccgcccccgcagccatcttggaaacatcctccggagaagaccatatttggcacaccccgccttcagaaaccgttacagatggcgccgaaagacgggtatcttcaattcccgcctttctagagaatttgtactcaccataaaaggaggatactcgcagccatcttggaatgttaaccacctcaaattcaacatcggccagttcctccccccctcaggcggcaccaacccactacccctacctttccaatactaccgtattagaaaggctaaatatgaattttaccccagagaccccatcacctctaatcaaagaggtgttgggtccactgttgttatcttggatgccaactttgtaaccccctccaccaacttggcctatgacccctatattaactactcctcccgccacaccataaggcagccctttacctaccactccaggtacttcacccccaaacctgagctggaccaaacaattgattggttccacccaaataataaaagaaaccagctgtggctccatttaaatacccacaccaatgtcgagcacacaggcctcggctatgcgctccaaaatgcagccacagcccaaaattatgtggtaaggctgactatttatgtacaattcagagaatttatcctaaaagaccctctaaataaataa', 'MTWPRRRYRRRRTRPRSHLGNILRRRPYLAHPAFRNRYRWRRKTGIFNSRLSREFVLTIKGGYSQPSWNVNHLKFNIGQFLPPSGGTNPLPLPFQYYRIRKAKYEFYPRDPITSNQRGVGSTVVILDANFVTPSTNLAYDPYINYSSRHTIRQPFTYHSRYFTPKPELDQTIDWFHPNNKRNQLWLHLNTHTNVEHTGLGYALQNAATAQNYVVRLTIYVQFREFILKDPLNK', 'right to left', '0', '1723', '1021', '702', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>515</v>
+      </c>
+      <c r="I19" t="n">
+        <v>335</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0.6440677966101694</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga', 'MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH', 'right to left', '1', '658', '37', '621', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>515</v>
+      </c>
+      <c r="I20" t="n">
+        <v>335</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>0.3728813559322034</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atgttaaccacctcaaattcaacatcggccagttcctccccccctcaggcggcaccaacccactacccctacctttccaatactaccgtattagaaaggctaaatatgaattttaccccagagaccccatcacctctaatcaaagaggtgttgggtccactgttgttatcttggatgccaactttgtaa', 'MLTTSNSTSASSSPPQAAPTHYPYLSNTTVLERLNMNFTPETPSPLIKEVLGPLLLSWMPTL', 'right to left', '2', '1518', '1329', '189', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>515</v>
+      </c>
+      <c r="I21" t="n">
+        <v>335</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0.847457627118644</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtga', 'MTCTAVFQSRCCIFPLTFKSSASPRKFLTYVTGNCSATVTKDPVSKRVLTAVDKSLRFPWFRGAPHSISMWPSLLQYSLFCWSVPFAFSMWQRAPKYHFTLLKVCFLAKFANPWR', 'right to left', '2', '552', '204', '348', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>515</v>
+      </c>
+      <c r="I22" t="n">
+        <v>335</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0.711864406779661</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactga', 'MPSKKSGPQPHKRWVFTLNNPSEEEKNKIRELPISLFDYFVCGEEGLEEGRTPHLQGFANFAKKQTFNKVKWYFGARCHIEKAKGTDQQNKEYCSKEGHILIECGAPRNQGKRSDLSTAVSTLLETGSLVTVAEQFPVTYVRNFRGLAELLKVSGKMQQRDWKTAVHVIVGPPGCGKSQWARNFAEPSDTYWKPSRNKWWDGYHGEEVVVLDDFYGWLPWDDLLRLCDRYPLTVETKGGTVPFLARSILITSNQAPQEWYSSTAVPAVEALYRRITTLQFWKTAGEQSTEVPEGRFEAVDPPCALFPYKINY', 'left to right', '0', '46', '985', '939', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>515</v>
+      </c>
+      <c r="I23" t="n">
+        <v>335</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>0.4067796610169492</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtag', 'MEPQLVSFIIWVEPINCLVQLRFGGEVPGVVGKGLPYGVAGGVVNIGVIGQVGGGGYKVGIQDNNSGPNTSLIRGDGVSGVKFIFSLSNTVVLER', 'left to right', '1', '1162', '1450', '288', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>515</v>
+      </c>
+      <c r="I24" t="n">
+        <v>335</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0.6610169491525424</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 2 isolate BR, complete genome.', 'Porcine circovirus 2', 'atgacgtatccaaggaggcgttaccggagaagaagacaccgcccccgcagccatcttggccagatcctccgccgccgcccctggctcgtccacccccgccaccgttaccgctggagaaggaaaaatggcatcttcaacacccgcctctcccgcaccttcggatatactatcaagcgaaccacagtcaaaacgccctcctgggcggtggacatgatgagattcaatattaatgactttcttcccccaggagggggctcaaacccccgctctgtgccctttgaatactacagaataagaaaggttaaggttgaattctggccctgctccccgatcacccagggtgacaggggagtgggctccagtgctgttattctagatgataactttgtaacaaaggccacagccctcacctatgacccctatgtaaactactcctcccgccataccataacccagcccttctcctaccactcccgctactttacccccaaacctgtcctagattccactattgattacttccaaccaaacaacaaaagaaatcagctgtggctgagactacaaactactggaaatgtagaccacgtaggcctcggcactgcgttcgaaaacagtatatacgaccaggaatacaatatccgtgtaaccatgtatgtacaattcagagaatttaatcttaaagaccccccacttaacccctaa', 'MTYPRRRYRRRRHRPRSHLGQILRRRPWLVHPRHRYRWRRKNGIFNTRLSRTFGYTIKRTTVKTPSWAVDMMRFNINDFLPPGGGSNPRSVPFEYYRIRKVKVEFWPCSPITQGDRGVGSSAVILDDNFVTKATALTYDPYVNYSSRHTITQPFSYHSRYFTPKPVLDSTIDYFQPNNKRNQLWLRLQTTGNVDHVGLGTAFENSIYDQEYNIRVTMYVQFREFNLKDPPLNP', 'right to left', '0', '1734', '1032', '702', 'accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>515</v>
+      </c>
+      <c r="I25" t="n">
+        <v>335</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0.3559322033898305</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 2 isolate BR, complete genome.', 'Porcine circovirus 2', 'atgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactga', 'MYTSLWGHLGVVKANGLLILQTRKPHTGNHLETSGGMVTMVKKWLLLMTFMAGCPGMIY', 'left to right', '2', '552', '732', '180', 'accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>515</v>
+      </c>
+      <c r="I26" t="n">
+        <v>335</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>0.559322033898305</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 2 isolate BR, complete genome.', 'Porcine circovirus 2', 'atggtaaccatcccaccacttgtttctaggtggtttccagtatgtggtttccgggtctgcaaaattagcagcccatttgcttttaccacacccaggtggccccacaatgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctgagatctaggagctccacactccatcagtaa', 'MVTIPPLVSRWFPVCGFRVCKISSPFAFTTPRWPHNDVYISLPITLLHFPAHFQKFSQPAEISDKRYRVLLCNGHQTPALQQGTHSSRQVTPLSLRSRSSTLHQ', 'right to left', '1', '671', '356', '315', 'accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>515</v>
+      </c>
+      <c r="I27" t="n">
+        <v>335</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>0.9830508474576272</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 2 isolate BR, complete genome.', 'Porcine circovirus 2', 'atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga', 'MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP', 'right to left', '2', '565', '385', '180', 'accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>515</v>
+      </c>
+      <c r="I28" t="n">
+        <v>335</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0.7288135593220338</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 2 isolate BR, complete genome.', 'Porcine circovirus 2', 'atgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactga', 'MPSKKNGRSGPQPHKRWVFTLNNPSEDERKKIRDLPISLFDYFIVGEEGNEEGRTPHLQGFANFVKKQTFNKVKWYLGARCHIEKAKGTDQQNKEYCSKEGNLLMECGAPRSQGQRSDLSTAVSTLLESGSLVTVAEQHPVTFVRNFRGLAELLKVSGKMQKRDWKTNVHVIVGPPGCGKSKWAANFADPETTYWKPPRNKWWDGYHGEEVVVIDDFYGWLPWDDLLRLCDRYPLTVETKGGTVPFLARSILITSNQTPLEWYSSTAVPAVEALYRRITSLVFWKNATEQSTEEGGQFVTLSPPCPEFPYEINY', 'left to right', '0', '50', '995', '945', 'accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>515</v>
+      </c>
+      <c r="I29" t="n">
+        <v>335</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>0.559322033898305</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctag', 'MRGRLPVPAPEAQRERARGDTACRHRRGQIYIYFHLENGLVTNPNFFGAVEVCHSSFFRDINAPKQCSPLNGGVICVEPWGGSGEKEEALSWVSAGSSRQKWFGGEVTAVFFFRSHNFTSGTFRIRVVLEPSVCGPGAV', 'left to right', '1', '1230', '1650', '420', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>515</v>
+      </c>
+      <c r="I30" t="n">
+        <v>335</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>0.4406779661016949</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atggggagcactgctttggagcatttatgtcccggaaaaaactggaatgacagacttctacggcaccaaagaagtttggattcgttacaagtccgttctctaagtgaaaataaatataaatctgacccctccggtggcgacaagccgtgtcccctcgcgcgcgctcccgctgcgcttcgggtgcgggcacaggtaaacgccctcgcatgtggggaccccatcccccacatgcttcggtgggggcgacaagccgtggctagggggctgcccacccaccctcccaataaatacccccaccccaacgcaataattgtacacaagtgcaaataa', 'MGSTALEHLCPGKNWNDRLLRHQRSLDSLQVRSLSENKYKSDPSGGDKPCPLARAPAALRVRAQVNALACGDPIPHMLRWGRQAVARGLPTHPPNKYPHPNAIIVHKCK', 'right to left', '2', '1438', '1108', '330', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>515</v>
+      </c>
+      <c r="I31" t="n">
+        <v>335</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>0.4406779661016949</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa', 'MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP', 'right to left', '1', '1078', '847', '231', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>515</v>
+      </c>
+      <c r="I32" t="n">
+        <v>335</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0.423728813559322</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atgacaataaaagtccttatcttcaggacactcgtagcaccacaaaaactcagttatccagtccccgtcctgcggcatcaaaacacgaggccgcttcatcatccactgcccggtatatccactcacacggtgcggagcatccataatgggataccactttttctccctacagacctccgtggatccgggttccgaggtgccgggtaa', 'MTIKVLIFRTLVAPQKLSYPVPVLRHQNTRPLHHPLPGISTHTVRSIHNGIPLFLPTDLRGSGFRGAG', 'right to left', '1', '205', '-2', '207', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>515</v>
+      </c>
+      <c r="I33" t="n">
+        <v>335</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>0.5084745762711864</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactga', 'MDAPHRVSGYTGQWMMKRPRVLMPQDGDWITEFLWCYECPEDKDFYCHPILGPEGKPETQVVFYDKQLDPDRVGIYCGVWRQYSEIPYYRQRGWKKRYPTLARVREFQEQKATQLGEALTRIWSGPSGAGEGEPQRGQRVLQERGGLPRDWRRFLFGYQIGSSSSSSDSDGDVGKSD', 'left to right', '0', '61', '595', '534', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>515</v>
+      </c>
+      <c r="I34" t="n">
+        <v>335</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>0.6101694915254238</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atgagacacagagctatattcagaagaagaccccgcccaaggagacgacgacgccacagaaggcgctatgccagaagacgactattcattaggaggcccacagctggcacatactacacaaagaaatactccacaatgaacgtcatatccgttggaacccctcagaataacaagccctggcacgccaaccacttcattacccgcctaaacgaatgggaaactgcaattacctttgaatattataagatactaaaaatgaaagttacactcagccctgtaatttctccggctcagcaaacaaaaactatgttcgggcacacagccatagatctagacggcgcctggaccacaaacacttggctccaagacgacccttatgcggaaagttccactcgtaaagttatgacttctaaaaaaaaacacagccgttacttcacccccaaaccacttctggcgggaactaccagcgctcacccaggacaaagcctcttctttttctccagacccaccccatggctcaacacatatgaccccaccgttcaatggggagcactgctttggagcatttatgtcccggaaaaaactggaatgacagacttctacggcaccaaagaagtttggattcgttacaagtccgttctctaa', 'MRHRAIFRRRPRPRRRRRHRRRYARRRLFIRRPTAGTYYTKKYSTMNVISVGTPQNNKPWHANHFITRLNEWETAITFEYYKILKMKVTLSPVISPAQQTKTMFGHTAIDLDGAWTTNTWLQDDPYAESSTRKVMTSKKKHSRYFTPKPLLAGTTSAHPGQSLFFFSRPTPWLNTYDPTVQWGALLWSIYVPEKTGMTDFYGTKEVWIRYKSVL', 'right to left', '0', '1980', '1335', '645', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>515</v>
+      </c>
+      <c r="I35" t="n">
+        <v>335</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>0.5254237288135594</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattga', 'MPAVFIRYGRGLRDFCGVMGLGKPRDFKTEVYVFIGPPGCGKTREACADAAARELQLYFKPRGPWWDGYNGEGAVILDDFYGWVPFDELLRIGDRYPLRVPVKGGFVNFVAKVLYITSNVVPEEWYSSENIRGKLEALFRRFTKVVCWGEGGVKKDMETVYPINY', 'left to right', '0', '608', '1106', '498', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>515</v>
+      </c>
+      <c r="I36" t="n">
+        <v>335</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0.4067796610169492</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttga', 'MWGMGSPHARAFTCARTRSAAGARARGHGLSPPEGSDLYLFSLRERTCNESKLLWCRRSLSFQFFPGHKCSKAVLPIERWGHMC', 'left to right', '3', '1208', '1463', '255', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
         </is>
       </c>
     </row>

--- a/AnalyzedORFS/exported_json_data.xlsx
+++ b/AnalyzedORFS/exported_json_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,52 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Matchs</t>
+          <t>SpecieName</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Ancestor</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ORFSequenceNucleotide</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ORFSequenceAminoacid</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Startcodon</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Endcodon</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Startaminoacid</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Endaminoacid</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>AncestorSequence</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Direction</t>
         </is>
       </c>
     </row>
@@ -501,22 +546,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Porcine circovirus 3</t>
+          <t>Porcine circovirus 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+          <t>atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+          <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -528,25 +573,62 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>470</v>
+        <v>612</v>
       </c>
       <c r="I2" t="n">
-        <v>239</v>
+        <v>-9</v>
       </c>
       <c r="J2" t="n">
-        <v>231</v>
+        <v>621</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.5657894736842105</v>
+        <v>0.9951456310679612</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga', 'MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH', 'right to left', '1', '658', '37', '621', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>658</v>
+      </c>
+      <c r="S2" t="n">
+        <v>37</v>
+      </c>
+      <c r="T2" t="n">
+        <v>621</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>right to left</t>
         </is>
       </c>
     </row>
@@ -556,22 +638,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Porcine circovirus 3</t>
+          <t>Porcine circovirus 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+          <t>atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+          <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -583,25 +665,62 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>470</v>
+        <v>612</v>
       </c>
       <c r="I3" t="n">
-        <v>239</v>
+        <v>-9</v>
       </c>
       <c r="J3" t="n">
-        <v>231</v>
+        <v>621</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.4514563106796116</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atgttaaccacctcaaattcaacatcggccagttcctccccccctcaggcggcaccaacccactacccctacctttccaatactaccgtattagaaaggctaaatatgaattttaccccagagaccccatcacctctaatcaaagaggtgttgggtccactgttgttatcttggatgccaactttgtaa', 'MLTTSNSTSASSSPPQAAPTHYPYLSNTTVLERLNMNFTPETPSPLIKEVLGPLLLSWMPTL', 'right to left', '2', '1518', '1329', '189', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>atgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactga</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>MPSKKSGPQPHKRWVFTLNNPSEEEKNKIRELPISLFDYFVCGEEGLEEGRTPHLQGFANFAKKQTFNKVKWYFGARCHIEKAKGTDQQNKEYCSKEGHILIECGAPRNQGKRSDLSTAVSTLLETGSLVTVAEQFPVTYVRNFRGLAELLKVSGKMQQRDWKTAVHVIVGPPGCGKSQWARNFAEPSDTYWKPSRNKWWDGYHGEEVVVLDDFYGWLPWDDLLRLCDRYPLTVETKGGTVPFLARSILITSNQAPQEWYSSTAVPAVEALYRRITTLQFWKTAGEQSTEVPEGRFEAVDPPCALFPYKINY</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>46</v>
+      </c>
+      <c r="S3" t="n">
+        <v>985</v>
+      </c>
+      <c r="T3" t="n">
+        <v>939</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>left to right</t>
         </is>
       </c>
     </row>
@@ -611,22 +730,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Porcine circovirus 3</t>
+          <t>Porcine circovirus 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+          <t>atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+          <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -638,25 +757,62 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>470</v>
+        <v>612</v>
       </c>
       <c r="I4" t="n">
-        <v>239</v>
+        <v>-9</v>
       </c>
       <c r="J4" t="n">
-        <v>231</v>
+        <v>621</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.3947368421052631</v>
+        <v>0.3592233009708738</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtga', 'MTCTAVFQSRCCIFPLTFKSSASPRKFLTYVTGNCSATVTKDPVSKRVLTAVDKSLRFPWFRGAPHSISMWPSLLQYSLFCWSVPFAFSMWQRAPKYHFTLLKVCFLAKFANPWR', 'right to left', '2', '552', '204', '348', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>atgacgtatccaaggaggcgttaccggagaagaagacaccgcccccgcagccatcttggccagatcctccgccgccgcccctggctcgtccacccccgccaccgttaccgctggagaaggaaaaatggcatcttcaacacccgcctctcccgcaccttcggatatactatcaagcgaaccacagtcaaaacgccctcctgggcggtggacatgatgagattcaatattaatgactttcttcccccaggagggggctcaaacccccgctctgtgccctttgaatactacagaataagaaaggttaaggttgaattctggccctgctccccgatcacccagggtgacaggggagtgggctccagtgctgttattctagatgataactttgtaacaaaggccacagccctcacctatgacccctatgtaaactactcctcccgccataccataacccagcccttctcctaccactcccgctactttacccccaaacctgtcctagattccactattgattacttccaaccaaacaacaaaagaaatcagctgtggctgagactacaaactactggaaatgtagaccacgtaggcctcggcactgcgttcgaaaacagtatatacgaccaggaatacaatatccgtgtaaccatgtatgtacaattcagagaatttaatcttaaagaccccccacttaacccctaa</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>MTYPRRRYRRRRHRPRSHLGQILRRRPWLVHPRHRYRWRRKNGIFNTRLSRTFGYTIKRTTVKTPSWAVDMMRFNINDFLPPGGGSNPRSVPFEYYRIRKVKVEFWPCSPITQGDRGVGSSAVILDDNFVTKATALTYDPYVNYSSRHTITQPFSYHSRYFTPKPVLDSTIDYFQPNNKRNQLWLRLQTTGNVDHVGLGTAFENSIYDQEYNIRVTMYVQFREFNLKDPPLNP</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1734</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1032</v>
+      </c>
+      <c r="T4" t="n">
+        <v>702</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>right to left</t>
         </is>
       </c>
     </row>
@@ -666,22 +822,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Porcine circovirus 3</t>
+          <t>Porcine circovirus 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+          <t>atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+          <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -693,25 +849,62 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>470</v>
+        <v>612</v>
       </c>
       <c r="I5" t="n">
-        <v>239</v>
+        <v>-9</v>
       </c>
       <c r="J5" t="n">
-        <v>231</v>
+        <v>621</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.6973684210526315</v>
+        <v>0.3640776699029126</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactga', 'MPSKKSGPQPHKRWVFTLNNPSEEEKNKIRELPISLFDYFVCGEEGLEEGRTPHLQGFANFAKKQTFNKVKWYFGARCHIEKAKGTDQQNKEYCSKEGHILIECGAPRNQGKRSDLSTAVSTLLETGSLVTVAEQFPVTYVRNFRGLAELLKVSGKMQQRDWKTAVHVIVGPPGCGKSQWARNFAEPSDTYWKPSRNKWWDGYHGEEVVVLDDFYGWLPWDDLLRLCDRYPLTVETKGGTVPFLARSILITSNQAPQEWYSSTAVPAVEALYRRITTLQFWKTAGEQSTEVPEGRFEAVDPPCALFPYKINY', 'left to right', '0', '46', '985', '939', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>atggtaaccatcccaccacttgtttctaggtggtttccagtatgtggtttccgggtctgcaaaattagcagcccatttgcttttaccacacccaggtggccccacaatgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctgagatctaggagctccacactccatcagtaa</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>MVTIPPLVSRWFPVCGFRVCKISSPFAFTTPRWPHNDVYISLPITLLHFPAHFQKFSQPAEISDKRYRVLLCNGHQTPALQQGTHSSRQVTPLSLRSRSSTLHQ</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>671</v>
+      </c>
+      <c r="S5" t="n">
+        <v>356</v>
+      </c>
+      <c r="T5" t="n">
+        <v>315</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>right to left</t>
         </is>
       </c>
     </row>
@@ -721,22 +914,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Porcine circovirus 3</t>
+          <t>Porcine circovirus 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+          <t>atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+          <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -748,31 +941,68 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>470</v>
+        <v>612</v>
       </c>
       <c r="I6" t="n">
-        <v>239</v>
+        <v>-9</v>
       </c>
       <c r="J6" t="n">
-        <v>231</v>
+        <v>621</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.3815789473684211</v>
+        <v>0.4320388349514563</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtag', 'MEPQLVSFIIWVEPINCLVQLRFGGEVPGVVGKGLPYGVAGGVVNIGVIGQVGGGGYKVGIQDNNSGPNTSLIRGDGVSGVKFIFSLSNTVVLER', 'left to right', '1', '1162', '1450', '288', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>atgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactga</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>MPSKKNGRSGPQPHKRWVFTLNNPSEDERKKIRDLPISLFDYFIVGEEGNEEGRTPHLQGFANFVKKQTFNKVKWYLGARCHIEKAKGTDQQNKEYCSKEGNLLMECGAPRSQGQRSDLSTAVSTLLESGSLVTVAEQHPVTFVRNFRGLAELLKVSGKMQKRDWKTNVHVIVGPPGCGKSKWAANFADPETTYWKPPRNKWWDGYHGEEVVVIDDFYGWLPWDDLLRLCDRYPLTVETKGGTVPFLARSILITSNQTPLEWYSSTAVPAVEALYRRITSLVFWKNATEQSTEEGGQFVTLSPPCPEFPYEINY</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>50</v>
+      </c>
+      <c r="S6" t="n">
+        <v>995</v>
+      </c>
+      <c r="T6" t="n">
+        <v>945</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>left to right</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -786,12 +1016,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+          <t>atgacaataaaagtccttatcttcaggacactcgtagcaccacaaaaactcagttatccagtccccgtcctgcggcatcaaaacacgaggccgcttcatcatccactgcccggtatatccactcacacggtgcggagcatccataatgggataccactttttctccctacagacctccgtggatccgggttccgaggtgccgggtaa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+          <t>MTIKVLIFRTLVAPQKLSYPVPVLRHQNTRPLHHPLPGISTHTVRSIHNGIPLFLPTDLRGSGFRGAG</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -799,35 +1029,86 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>1</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="H7" t="n">
-        <v>470</v>
+        <v>144</v>
       </c>
       <c r="I7" t="n">
-        <v>239</v>
-      </c>
-      <c r="J7" t="n">
-        <v>231</v>
+        <v>-63</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>0.5789473684210527</v>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.6323529411764706</t>
+        </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['Porcine circovirus 2 isolate BR, complete genome.', 'Porcine circovirus 2', 'atgacgtatccaaggaggcgttaccggagaagaagacaccgcccccgcagccatcttggccagatcctccgccgccgcccctggctcgtccacccccgccaccgttaccgctggagaaggaaaaatggcatcttcaacacccgcctctcccgcaccttcggatatactatcaagcgaaccacagtcaaaacgccctcctgggcggtggacatgatgagattcaatattaatgactttcttcccccaggagggggctcaaacccccgctctgtgccctttgaatactacagaataagaaaggttaaggttgaattctggccctgctccccgatcacccagggtgacaggggagtgggctccagtgctgttattctagatgataactttgtaacaaaggccacagccctcacctatgacccctatgtaaactactcctcccgccataccataacccagcccttctcctaccactcccgctactttacccccaaacctgtcctagattccactattgattacttccaaccaaacaacaaaagaaatcagctgtggctgagactacaaactactggaaatgtagaccacgtaggcctcggcactgcgttcgaaaacagtatatacgaccaggaatacaatatccgtgtaaccatgtatgtacaattcagagaatttaatcttaaagaccccccacttaacccctaa', 'MTYPRRRYRRRRHRPRSHLGQILRRRPWLVHPRHRYRWRRKNGIFNTRLSRTFGYTIKRTTVKTPSWAVDMMRFNINDFLPPGGGSNPRSVPFEYYRIRKVKVEFWPCSPITQGDRGVGSSAVILDDNFVTKATALTYDPYVNYSSRHTITQPFSYHSRYFTPKPVLDSTIDYFQPNNKRNQLWLRLQTTGNVDHVGLGTAFENSIYDQEYNIRVTMYVQFREFNLKDPPLNP', 'right to left', '0', '1734', '1032', '702', 'accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt']</t>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>right to left</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -841,12 +1122,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+          <t>atgacaataaaagtccttatcttcaggacactcgtagcaccacaaaaactcagttatccagtccccgtcctgcggcatcaaaacacgaggccgcttcatcatccactgcccggtatatccactcacacggtgcggagcatccataatgggataccactttttctccctacagacctccgtggatccgggttccgaggtgccgggtaa</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+          <t>MTIKVLIFRTLVAPQKLSYPVPVLRHQNTRPLHHPLPGISTHTVRSIHNGIPLFLPTDLRGSGFRGAG</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -854,35 +1135,86 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>1</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>470</v>
+        <v>144</v>
       </c>
       <c r="I8" t="n">
-        <v>239</v>
-      </c>
-      <c r="J8" t="n">
-        <v>231</v>
+        <v>-63</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>0.4736842105263157</v>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.36764705882352944</t>
+        </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['Porcine circovirus 2 isolate BR, complete genome.', 'Porcine circovirus 2', 'atggtaaccatcccaccacttgtttctaggtggtttccagtatgtggtttccgggtctgcaaaattagcagcccatttgcttttaccacacccaggtggccccacaatgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctgagatctaggagctccacactccatcagtaa', 'MVTIPPLVSRWFPVCGFRVCKISSPFAFTTPRWPHNDVYISLPITLLHFPAHFQKFSQPAEISDKRYRVLLCNGHQTPALQQGTHSSRQVTPLSLRSRSSTLHQ', 'right to left', '1', '671', '356', '315', 'accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt']</t>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>atgttaaccacctcaaattcaacatcggccagttcctccccccctcaggcggcaccaacccactacccctacctttccaatactaccgtattagaaaggctaaatatgaattttaccccagagaccccatcacctctaatcaaagaggtgttgggtccactgttgttatcttggatgccaactttgtaa</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>MLTTSNSTSASSSPPQAAPTHYPYLSNTTVLERLNMNFTPETPSPLIKEVLGPLLLSWMPTL</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>1518</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>1329</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>right to left</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -896,12 +1228,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+          <t>atgacaataaaagtccttatcttcaggacactcgtagcaccacaaaaactcagttatccagtccccgtcctgcggcatcaaaacacgaggccgcttcatcatccactgcccggtatatccactcacacggtgcggagcatccataatgggataccactttttctccctacagacctccgtggatccgggttccgaggtgccgggtaa</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+          <t>MTIKVLIFRTLVAPQKLSYPVPVLRHQNTRPLHHPLPGISTHTVRSIHNGIPLFLPTDLRGSGFRGAG</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -909,35 +1241,86 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>1</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>470</v>
+        <v>144</v>
       </c>
       <c r="I9" t="n">
-        <v>239</v>
-      </c>
-      <c r="J9" t="n">
-        <v>231</v>
+        <v>-63</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>0.6973684210526315</v>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0.4411764705882353</t>
+        </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['Porcine circovirus 2 isolate BR, complete genome.', 'Porcine circovirus 2', 'atgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactga', 'MPSKKNGRSGPQPHKRWVFTLNNPSEDERKKIRDLPISLFDYFIVGEEGNEEGRTPHLQGFANFVKKQTFNKVKWYLGARCHIEKAKGTDQQNKEYCSKEGNLLMECGAPRSQGQRSDLSTAVSTLLESGSLVTVAEQHPVTFVRNFRGLAELLKVSGKMQKRDWKTNVHVIVGPPGCGKSKWAANFADPETTYWKPPRNKWWDGYHGEEVVVIDDFYGWLPWDDLLRLCDRYPLTVETKGGTVPFLARSILITSNQTPLEWYSSTAVPAVEALYRRITSLVFWKNATEQSTEEGGQFVTLSPPCPEFPYEINY', 'left to right', '0', '50', '995', '945', 'accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt']</t>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>atgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtga</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>MTCTAVFQSRCCIFPLTFKSSASPRKFLTYVTGNCSATVTKDPVSKRVLTAVDKSLRFPWFRGAPHSISMWPSLLQYSLFCWSVPFAFSMWQRAPKYHFTLLKVCFLAKFANPWR</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>right to left</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -951,12 +1334,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+          <t>atgacaataaaagtccttatcttcaggacactcgtagcaccacaaaaactcagttatccagtccccgtcctgcggcatcaaaacacgaggccgcttcatcatccactgcccggtatatccactcacacggtgcggagcatccataatgggataccactttttctccctacagacctccgtggatccgggttccgaggtgccgggtaa</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+          <t>MTIKVLIFRTLVAPQKLSYPVPVLRHQNTRPLHHPLPGISTHTVRSIHNGIPLFLPTDLRGSGFRGAG</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -964,35 +1347,86 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>1</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="H10" t="n">
-        <v>470</v>
+        <v>144</v>
       </c>
       <c r="I10" t="n">
-        <v>239</v>
-      </c>
-      <c r="J10" t="n">
-        <v>231</v>
+        <v>-63</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>0.4473684210526316</v>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.6764705882352942</t>
+        </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctag', 'MRGRLPVPAPEAQRERARGDTACRHRRGQIYIYFHLENGLVTNPNFFGAVEVCHSSFFRDINAPKQCSPLNGGVICVEPWGGSGEKEEALSWVSAGSSRQKWFGGEVTAVFFFRSHNFTSGTFRIRVVLEPSVCGPGAV', 'left to right', '1', '1230', '1650', '420', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>atgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactga</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>MPSKKSGPQPHKRWVFTLNNPSEEEKNKIRELPISLFDYFVCGEEGLEEGRTPHLQGFANFAKKQTFNKVKWYFGARCHIEKAKGTDQQNKEYCSKEGHILIECGAPRNQGKRSDLSTAVSTLLETGSLVTVAEQFPVTYVRNFRGLAELLKVSGKMQQRDWKTAVHVIVGPPGCGKSQWARNFAEPSDTYWKPSRNKWWDGYHGEEVVVLDDFYGWLPWDDLLRLCDRYPLTVETKGGTVPFLARSILITSNQAPQEWYSSTAVPAVEALYRRITTLQFWKTAGEQSTEVPEGRFEAVDPPCALFPYKINY</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>left to right</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1006,12 +1440,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+          <t>atgacaataaaagtccttatcttcaggacactcgtagcaccacaaaaactcagttatccagtccccgtcctgcggcatcaaaacacgaggccgcttcatcatccactgcccggtatatccactcacacggtgcggagcatccataatgggataccactttttctccctacagacctccgtggatccgggttccgaggtgccgggtaa</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+          <t>MTIKVLIFRTLVAPQKLSYPVPVLRHQNTRPLHHPLPGISTHTVRSIHNGIPLFLPTDLRGSGFRGAG</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1019,35 +1453,86 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>1</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="H11" t="n">
-        <v>470</v>
+        <v>144</v>
       </c>
       <c r="I11" t="n">
-        <v>239</v>
-      </c>
-      <c r="J11" t="n">
-        <v>231</v>
+        <v>-63</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>0.4210526315789473</v>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0.39705882352941174</t>
+        </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atggggagcactgctttggagcatttatgtcccggaaaaaactggaatgacagacttctacggcaccaaagaagtttggattcgttacaagtccgttctctaagtgaaaataaatataaatctgacccctccggtggcgacaagccgtgtcccctcgcgcgcgctcccgctgcgcttcgggtgcgggcacaggtaaacgccctcgcatgtggggaccccatcccccacatgcttcggtgggggcgacaagccgtggctagggggctgcccacccaccctcccaataaatacccccaccccaacgcaataattgtacacaagtgcaaataa', 'MGSTALEHLCPGKNWNDRLLRHQRSLDSLQVRSLSENKYKSDPSGGDKPCPLARAPAALRVRAQVNALACGDPIPHMLRWGRQAVARGLPTHPPNKYPHPNAIIVHKCK', 'right to left', '2', '1438', '1108', '330', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>atggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtag</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>MEPQLVSFIIWVEPINCLVQLRFGGEVPGVVGKGLPYGVAGGVVNIGVIGQVGGGGYKVGIQDNNSGPNTSLIRGDGVSGVKFIFSLSNTVVLER</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>1162</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>left to right</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1061,12 +1546,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+          <t>atgacaataaaagtccttatcttcaggacactcgtagcaccacaaaaactcagttatccagtccccgtcctgcggcatcaaaacacgaggccgcttcatcatccactgcccggtatatccactcacacggtgcggagcatccataatgggataccactttttctccctacagacctccgtggatccgggttccgaggtgccgggtaa</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+          <t>MTIKVLIFRTLVAPQKLSYPVPVLRHQNTRPLHHPLPGISTHTVRSIHNGIPLFLPTDLRGSGFRGAG</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1074,35 +1559,86 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>1</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>470</v>
+        <v>144</v>
       </c>
       <c r="I12" t="n">
-        <v>239</v>
-      </c>
-      <c r="J12" t="n">
-        <v>231</v>
+        <v>-63</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>0.986842105263158</v>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0.5882352941176471</t>
+        </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa', 'MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP', 'right to left', '1', '1078', '847', '231', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>atgacgtatccaaggaggcgttaccggagaagaagacaccgcccccgcagccatcttggccagatcctccgccgccgcccctggctcgtccacccccgccaccgttaccgctggagaaggaaaaatggcatcttcaacacccgcctctcccgcaccttcggatatactatcaagcgaaccacagtcaaaacgccctcctgggcggtggacatgatgagattcaatattaatgactttcttcccccaggagggggctcaaacccccgctctgtgccctttgaatactacagaataagaaaggttaaggttgaattctggccctgctccccgatcacccagggtgacaggggagtgggctccagtgctgttattctagatgataactttgtaacaaaggccacagccctcacctatgacccctatgtaaactactcctcccgccataccataacccagcccttctcctaccactcccgctactttacccccaaacctgtcctagattccactattgattacttccaaccaaacaacaaaagaaatcagctgtggctgagactacaaactactggaaatgtagaccacgtaggcctcggcactgcgttcgaaaacagtatatacgaccaggaatacaatatccgtgtaaccatgtatgtacaattcagagaatttaatcttaaagaccccccacttaacccctaa</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>MTYPRRRYRRRRHRPRSHLGQILRRRPWLVHPRHRYRWRRKNGIFNTRLSRTFGYTIKRTTVKTPSWAVDMMRFNINDFLPPGGGSNPRSVPFEYYRIRKVKVEFWPCSPITQGDRGVGSSAVILDDNFVTKATALTYDPYVNYSSRHTITQPFSYHSRYFTPKPVLDSTIDYFQPNNKRNQLWLRLQTTGNVDHVGLGTAFENSIYDQEYNIRVTMYVQFREFNLKDPPLNP</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>1734</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>1032</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>702</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>right to left</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1116,12 +1652,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+          <t>atgacaataaaagtccttatcttcaggacactcgtagcaccacaaaaactcagttatccagtccccgtcctgcggcatcaaaacacgaggccgcttcatcatccactgcccggtatatccactcacacggtgcggagcatccataatgggataccactttttctccctacagacctccgtggatccgggttccgaggtgccgggtaa</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+          <t>MTIKVLIFRTLVAPQKLSYPVPVLRHQNTRPLHHPLPGISTHTVRSIHNGIPLFLPTDLRGSGFRGAG</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1129,35 +1665,86 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>1</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="H13" t="n">
-        <v>470</v>
+        <v>144</v>
       </c>
       <c r="I13" t="n">
-        <v>239</v>
-      </c>
-      <c r="J13" t="n">
-        <v>231</v>
+        <v>-63</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>0.3552631578947368</v>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.45588235294117646</t>
+        </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atgacaataaaagtccttatcttcaggacactcgtagcaccacaaaaactcagttatccagtccccgtcctgcggcatcaaaacacgaggccgcttcatcatccactgcccggtatatccactcacacggtgcggagcatccataatgggataccactttttctccctacagacctccgtggatccgggttccgaggtgccgggtaa', 'MTIKVLIFRTLVAPQKLSYPVPVLRHQNTRPLHHPLPGISTHTVRSIHNGIPLFLPTDLRGSGFRGAG', 'right to left', '1', '205', '-2', '207', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>atggtaaccatcccaccacttgtttctaggtggtttccagtatgtggtttccgggtctgcaaaattagcagcccatttgcttttaccacacccaggtggccccacaatgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctgagatctaggagctccacactccatcagtaa</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>MVTIPPLVSRWFPVCGFRVCKISSPFAFTTPRWPHNDVYISLPITLLHFPAHFQKFSQPAEISDKRYRVLLCNGHQTPALQQGTHSSRQVTPLSLRSRSSTLHQ</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>right to left</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1171,12 +1758,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+          <t>atgacaataaaagtccttatcttcaggacactcgtagcaccacaaaaactcagttatccagtccccgtcctgcggcatcaaaacacgaggccgcttcatcatccactgcccggtatatccactcacacggtgcggagcatccataatgggataccactttttctccctacagacctccgtggatccgggttccgaggtgccgggtaa</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+          <t>MTIKVLIFRTLVAPQKLSYPVPVLRHQNTRPLHHPLPGISTHTVRSIHNGIPLFLPTDLRGSGFRGAG</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1184,35 +1771,86 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>1</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="H14" t="n">
-        <v>470</v>
+        <v>144</v>
       </c>
       <c r="I14" t="n">
-        <v>239</v>
-      </c>
-      <c r="J14" t="n">
-        <v>231</v>
+        <v>-63</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>0.5131578947368421</v>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0.36764705882352944</t>
+        </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactga', 'MDAPHRVSGYTGQWMMKRPRVLMPQDGDWITEFLWCYECPEDKDFYCHPILGPEGKPETQVVFYDKQLDPDRVGIYCGVWRQYSEIPYYRQRGWKKRYPTLARVREFQEQKATQLGEALTRIWSGPSGAGEGEPQRGQRVLQERGGLPRDWRRFLFGYQIGSSSSSSDSDGDVGKSD', 'left to right', '0', '61', '595', '534', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>right to left</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1226,12 +1864,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+          <t>atgacaataaaagtccttatcttcaggacactcgtagcaccacaaaaactcagttatccagtccccgtcctgcggcatcaaaacacgaggccgcttcatcatccactgcccggtatatccactcacacggtgcggagcatccataatgggataccactttttctccctacagacctccgtggatccgggttccgaggtgccgggtaa</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+          <t>MTIKVLIFRTLVAPQKLSYPVPVLRHQNTRPLHHPLPGISTHTVRSIHNGIPLFLPTDLRGSGFRGAG</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1239,35 +1877,86 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>1</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="H15" t="n">
-        <v>470</v>
+        <v>144</v>
       </c>
       <c r="I15" t="n">
-        <v>239</v>
-      </c>
-      <c r="J15" t="n">
-        <v>231</v>
+        <v>-63</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>0.5921052631578947</v>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0.6617647058823529</t>
+        </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atgagacacagagctatattcagaagaagaccccgcccaaggagacgacgacgccacagaaggcgctatgccagaagacgactattcattaggaggcccacagctggcacatactacacaaagaaatactccacaatgaacgtcatatccgttggaacccctcagaataacaagccctggcacgccaaccacttcattacccgcctaaacgaatgggaaactgcaattacctttgaatattataagatactaaaaatgaaagttacactcagccctgtaatttctccggctcagcaaacaaaaactatgttcgggcacacagccatagatctagacggcgcctggaccacaaacacttggctccaagacgacccttatgcggaaagttccactcgtaaagttatgacttctaaaaaaaaacacagccgttacttcacccccaaaccacttctggcgggaactaccagcgctcacccaggacaaagcctcttctttttctccagacccaccccatggctcaacacatatgaccccaccgttcaatggggagcactgctttggagcatttatgtcccggaaaaaactggaatgacagacttctacggcaccaaagaagtttggattcgttacaagtccgttctctaa', 'MRHRAIFRRRPRPRRRRRHRRRYARRRLFIRRPTAGTYYTKKYSTMNVISVGTPQNNKPWHANHFITRLNEWETAITFEYYKILKMKVTLSPVISPAQQTKTMFGHTAIDLDGAWTTNTWLQDDPYAESSTRKVMTSKKKHSRYFTPKPLLAGTTSAHPGQSLFFFSRPTPWLNTYDPTVQWGALLWSIYVPEKTGMTDFYGTKEVWIRYKSVL', 'right to left', '0', '1980', '1335', '645', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>atgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactga</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>MPSKKNGRSGPQPHKRWVFTLNNPSEDERKKIRDLPISLFDYFIVGEEGNEEGRTPHLQGFANFVKKQTFNKVKWYLGARCHIEKAKGTDQQNKEYCSKEGNLLMECGAPRSQGQRSDLSTAVSTLLESGSLVTVAEQHPVTFVRNFRGLAELLKVSGKMQKRDWKTNVHVIVGPPGCGKSKWAANFADPETTYWKPPRNKWWDGYHGEEVVVIDDFYGWLPWDDLLRLCDRYPLTVETKGGTVPFLARSILITSNQTPLEWYSSTAVPAVEALYRRITSLVFWKNATEQSTEEGGQFVTLSPPCPEFPYEINY</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>left to right</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1281,12 +1970,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+          <t>atgacaataaaagtccttatcttcaggacactcgtagcaccacaaaaactcagttatccagtccccgtcctgcggcatcaaaacacgaggccgcttcatcatccactgcccggtatatccactcacacggtgcggagcatccataatgggataccactttttctccctacagacctccgtggatccgggttccgaggtgccgggtaa</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+          <t>MTIKVLIFRTLVAPQKLSYPVPVLRHQNTRPLHHPLPGISTHTVRSIHNGIPLFLPTDLRGSGFRGAG</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1294,54 +1983,105 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>1</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="H16" t="n">
-        <v>470</v>
+        <v>144</v>
       </c>
       <c r="I16" t="n">
-        <v>239</v>
-      </c>
-      <c r="J16" t="n">
-        <v>231</v>
+        <v>-63</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>0.4605263157894737</v>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.4852941176470588</t>
+        </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattga', 'MPAVFIRYGRGLRDFCGVMGLGKPRDFKTEVYVFIGPPGCGKTREACADAAARELQLYFKPRGPWWDGYNGEGAVILDDFYGWVPFDELLRIGDRYPLRVPVKGGFVNFVAKVLYITSNVVPEEWYSSENIRGKLEALFRRFTKVVCWGEGGVKKDMETVYPINY', 'left to right', '0', '608', '1106', '498', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>atgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctag</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>MRGRLPVPAPEAQRERARGDTACRHRRGQIYIYFHLENGLVTNPNFFGAVEVCHSSFFRDINAPKQCSPLNGGVICVEPWGGSGEKEEALSWVSAGSSRQKWFGGEVTAVFFFRSHNFTSGTFRIRVVLEPSVCGPGAV</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>1650</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>left to right</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Porcine circovirus 2</t>
+          <t>Porcine circovirus 3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+          <t>atgacaataaaagtccttatcttcaggacactcgtagcaccacaaaaactcagttatccagtccccgtcctgcggcatcaaaacacgaggccgcttcatcatccactgcccggtatatccactcacacggtgcggagcatccataatgggataccactttttctccctacagacctccgtggatccgggttccgaggtgccgggtaa</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+          <t>MTIKVLIFRTLVAPQKLSYPVPVLRHQNTRPLHHPLPGISTHTVRSIHNGIPLFLPTDLRGSGFRGAG</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1351,58 +2091,103 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>144</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-63</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0.4264705882352941</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>atggggagcactgctttggagcatttatgtcccggaaaaaactggaatgacagacttctacggcaccaaagaagtttggattcgttacaagtccgttctctaagtgaaaataaatataaatctgacccctccggtggcgacaagccgtgtcccctcgcgcgcgctcccgctgcgcttcgggtgcgggcacaggtaaacgccctcgcatgtggggaccccatcccccacatgcttcggtgggggcgacaagccgtggctagggggctgcccacccaccctcccaataaatacccccaccccaacgcaataattgtacacaagtgcaaataa</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>MGSTALEHLCPGKNWNDRLLRHQRSLDSLQVRSLSENKYKSDPSGGDKPCPLARAPAALRVRAQVNALACGDPIPHMLRWGRQAVARGLPTHPPNKYPHPNAIIVHKCK</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v>515</v>
-      </c>
-      <c r="I17" t="n">
-        <v>335</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>0.559322033898305</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>['Porcine circovirus 2 isolate BR, complete genome.', 'Porcine circovirus 2', 'atggtaaccatcccaccacttgtttctaggtggtttccagtatgtggtttccgggtctgcaaaattagcagcccatttgcttttaccacacccaggtggccccacaatgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctgagatctaggagctccacactccatcagtaa', 'MVTIPPLVSRWFPVCGFRVCKISSPFAFTTPRWPHNDVYISLPITLLHFPAHFQKFSQPAEISDKRYRVLLCNGHQTPALQQGTHSSRQVTPLSLRSRSSTLHQ', 'right to left', '1', 621, 306, '315', 'accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt']</t>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>1438</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>1108</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>right to left</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Porcine circovirus 2</t>
+          <t>Porcine circovirus 3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+          <t>atgacaataaaagtccttatcttcaggacactcgtagcaccacaaaaactcagttatccagtccccgtcctgcggcatcaaaacacgaggccgcttcatcatccactgcccggtatatccactcacacggtgcggagcatccataatgggataccactttttctccctacagacctccgtggatccgggttccgaggtgccgggtaa</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+          <t>MTIKVLIFRTLVAPQKLSYPVPVLRHQNTRPLHHPLPGISTHTVRSIHNGIPLFLPTDLRGSGFRGAG</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1412,58 +2197,103 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>515</v>
+        <v>144</v>
       </c>
       <c r="I18" t="n">
-        <v>335</v>
+        <v>-63</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>207</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.6610169491525424</t>
+          <t>0.39705882352941174</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atgacgtggccaaggaggcgttaccgcagaagaaggacccgcccccgcagccatcttggaaacatcctccggagaagaccatatttggcacaccccgccttcagaaaccgttacagatggcgccgaaagacgggtatcttcaattcccgcctttctagagaatttgtactcaccataaaaggaggatactcgcagccatcttggaatgttaaccacctcaaattcaacatcggccagttcctccccccctcaggcggcaccaacccactacccctacctttccaatactaccgtattagaaaggctaaatatgaattttaccccagagaccccatcacctctaatcaaagaggtgttgggtccactgttgttatcttggatgccaactttgtaaccccctccaccaacttggcctatgacccctatattaactactcctcccgccacaccataaggcagccctttacctaccactccaggtacttcacccccaaacctgagctggaccaaacaattgattggttccacccaaataataaaagaaaccagctgtggctccatttaaatacccacaccaatgtcgagcacacaggcctcggctatgcgctccaaaatgcagccacagcccaaaattatgtggtaaggctgactatttatgtacaattcagagaatttatcctaaaagaccctctaaataaataa', 'MTWPRRRYRRRRTRPRSHLGNILRRRPYLAHPAFRNRYRWRRKTGIFNSRLSREFVLTIKGGYSQPSWNVNHLKFNIGQFLPPSGGTNPLPLPFQYYRIRKAKYEFYPRDPITSNQRGVGSTVVILDANFVTPSTNLAYDPYINYSSRHTIRQPFTYHSRYFTPKPELDQTIDWFHPNNKRNQLWLHLNTHTNVEHTGLGYALQNAATAQNYVVRLTIYVQFREFILKDPLNK', 'right to left', '0', '1723', '1021', '702', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>1078</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>right to left</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Porcine circovirus 2</t>
+          <t>Porcine circovirus 3</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+          <t>atgacaataaaagtccttatcttcaggacactcgtagcaccacaaaaactcagttatccagtccccgtcctgcggcatcaaaacacgaggccgcttcatcatccactgcccggtatatccactcacacggtgcggagcatccataatgggataccactttttctccctacagacctccgtggatccgggttccgaggtgccgggtaa</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+          <t>MTIKVLIFRTLVAPQKLSYPVPVLRHQNTRPLHHPLPGISTHTVRSIHNGIPLFLPTDLRGSGFRGAG</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1473,58 +2303,103 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>515</v>
+        <v>144</v>
       </c>
       <c r="I19" t="n">
-        <v>335</v>
+        <v>-63</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>207</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.6440677966101694</t>
+          <t>0.9852941176470589</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga', 'MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH', 'right to left', '1', '658', '37', '621', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>atgacaataaaagtccttatcttcaggacactcgtagcaccacaaaaactcagttatccagtccccgtcctgcggcatcaaaacacgaggccgcttcatcatccactgcccggtatatccactcacacggtgcggagcatccataatgggataccactttttctccctacagacctccgtggatccgggttccgaggtgccgggtaa</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>MTIKVLIFRTLVAPQKLSYPVPVLRHQNTRPLHHPLPGISTHTVRSIHNGIPLFLPTDLRGSGFRGAG</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>right to left</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Porcine circovirus 2</t>
+          <t>Porcine circovirus 3</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+          <t>atgacaataaaagtccttatcttcaggacactcgtagcaccacaaaaactcagttatccagtccccgtcctgcggcatcaaaacacgaggccgcttcatcatccactgcccggtatatccactcacacggtgcggagcatccataatgggataccactttttctccctacagacctccgtggatccgggttccgaggtgccgggtaa</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+          <t>MTIKVLIFRTLVAPQKLSYPVPVLRHQNTRPLHHPLPGISTHTVRSIHNGIPLFLPTDLRGSGFRGAG</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1534,58 +2409,103 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>515</v>
+        <v>144</v>
       </c>
       <c r="I20" t="n">
-        <v>335</v>
+        <v>-63</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>207</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.3728813559322034</t>
+          <t>0.5294117647058824</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atgttaaccacctcaaattcaacatcggccagttcctccccccctcaggcggcaccaacccactacccctacctttccaatactaccgtattagaaaggctaaatatgaattttaccccagagaccccatcacctctaatcaaagaggtgttgggtccactgttgttatcttggatgccaactttgtaa', 'MLTTSNSTSASSSPPQAAPTHYPYLSNTTVLERLNMNFTPETPSPLIKEVLGPLLLSWMPTL', 'right to left', '2', '1518', '1329', '189', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>atggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactga</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>MDAPHRVSGYTGQWMMKRPRVLMPQDGDWITEFLWCYECPEDKDFYCHPILGPEGKPETQVVFYDKQLDPDRVGIYCGVWRQYSEIPYYRQRGWKKRYPTLARVREFQEQKATQLGEALTRIWSGPSGAGEGEPQRGQRVLQERGGLPRDWRRFLFGYQIGSSSSSSDSDGDVGKSD</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>left to right</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Porcine circovirus 2</t>
+          <t>Porcine circovirus 3</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+          <t>atgacaataaaagtccttatcttcaggacactcgtagcaccacaaaaactcagttatccagtccccgtcctgcggcatcaaaacacgaggccgcttcatcatccactgcccggtatatccactcacacggtgcggagcatccataatgggataccactttttctccctacagacctccgtggatccgggttccgaggtgccgggtaa</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+          <t>MTIKVLIFRTLVAPQKLSYPVPVLRHQNTRPLHHPLPGISTHTVRSIHNGIPLFLPTDLRGSGFRGAG</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1595,58 +2515,103 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>515</v>
+        <v>144</v>
       </c>
       <c r="I21" t="n">
-        <v>335</v>
+        <v>-63</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>207</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.847457627118644</t>
+          <t>0.5588235294117647</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtga', 'MTCTAVFQSRCCIFPLTFKSSASPRKFLTYVTGNCSATVTKDPVSKRVLTAVDKSLRFPWFRGAPHSISMWPSLLQYSLFCWSVPFAFSMWQRAPKYHFTLLKVCFLAKFANPWR', 'right to left', '2', '552', '204', '348', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>atgagacacagagctatattcagaagaagaccccgcccaaggagacgacgacgccacagaaggcgctatgccagaagacgactattcattaggaggcccacagctggcacatactacacaaagaaatactccacaatgaacgtcatatccgttggaacccctcagaataacaagccctggcacgccaaccacttcattacccgcctaaacgaatgggaaactgcaattacctttgaatattataagatactaaaaatgaaagttacactcagccctgtaatttctccggctcagcaaacaaaaactatgttcgggcacacagccatagatctagacggcgcctggaccacaaacacttggctccaagacgacccttatgcggaaagttccactcgtaaagttatgacttctaaaaaaaaacacagccgttacttcacccccaaaccacttctggcgggaactaccagcgctcacccaggacaaagcctcttctttttctccagacccaccccatggctcaacacatatgaccccaccgttcaatggggagcactgctttggagcatttatgtcccggaaaaaactggaatgacagacttctacggcaccaaagaagtttggattcgttacaagtccgttctctaa</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>MRHRAIFRRRPRPRRRRRHRRRYARRRLFIRRPTAGTYYTKKYSTMNVISVGTPQNNKPWHANHFITRLNEWETAITFEYYKILKMKVTLSPVISPAQQTKTMFGHTAIDLDGAWTTNTWLQDDPYAESSTRKVMTSKKKHSRYFTPKPLLAGTTSAHPGQSLFFFSRPTPWLNTYDPTVQWGALLWSIYVPEKTGMTDFYGTKEVWIRYKSVL</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>1335</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>right to left</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Porcine circovirus 2</t>
+          <t>Porcine circovirus 3</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
+          <t>atgacaataaaagtccttatcttcaggacactcgtagcaccacaaaaactcagttatccagtccccgtcctgcggcatcaaaacacgaggccgcttcatcatccactgcccggtatatccactcacacggtgcggagcatccataatgggataccactttttctccctacagacctccgtggatccgggttccgaggtgccgggtaa</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
+          <t>MTIKVLIFRTLVAPQKLSYPVPVLRHQNTRPLHHPLPGISTHTVRSIHNGIPLFLPTDLRGSGFRGAG</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1656,887 +2621,78 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>515</v>
+        <v>144</v>
       </c>
       <c r="I22" t="n">
-        <v>335</v>
+        <v>-63</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>207</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.711864406779661</t>
+          <t>0.4852941176470588</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactga', 'MPSKKSGPQPHKRWVFTLNNPSEEEKNKIRELPISLFDYFVCGEEGLEEGRTPHLQGFANFAKKQTFNKVKWYFGARCHIEKAKGTDQQNKEYCSKEGHILIECGAPRNQGKRSDLSTAVSTLLETGSLVTVAEQFPVTYVRNFRGLAELLKVSGKMQQRDWKTAVHVIVGPPGCGKSQWARNFAEPSDTYWKPSRNKWWDGYHGEEVVVLDDFYGWLPWDDLLRLCDRYPLTVETKGGTVPFLARSILITSNQAPQEWYSSTAVPAVEALYRRITTLQFWKTAGEQSTEVPEGRFEAVDPPCALFPYKINY', 'left to right', '0', '46', '985', '939', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>right to left</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>515</v>
-      </c>
-      <c r="I23" t="n">
-        <v>335</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>0.4067796610169492</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>['Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.', 'Porcine circovirus 1', 'atggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtag', 'MEPQLVSFIIWVEPINCLVQLRFGGEVPGVVGKGLPYGVAGGVVNIGVIGQVGGGGYKVGIQDNNSGPNTSLIRGDGVSGVKFIFSLSNTVVLER', 'left to right', '1', '1162', '1450', '288', 'accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt']</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>right to left</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>515</v>
-      </c>
-      <c r="I24" t="n">
-        <v>335</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>0.6610169491525424</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>['Porcine circovirus 2 isolate BR, complete genome.', 'Porcine circovirus 2', 'atgacgtatccaaggaggcgttaccggagaagaagacaccgcccccgcagccatcttggccagatcctccgccgccgcccctggctcgtccacccccgccaccgttaccgctggagaaggaaaaatggcatcttcaacacccgcctctcccgcaccttcggatatactatcaagcgaaccacagtcaaaacgccctcctgggcggtggacatgatgagattcaatattaatgactttcttcccccaggagggggctcaaacccccgctctgtgccctttgaatactacagaataagaaaggttaaggttgaattctggccctgctccccgatcacccagggtgacaggggagtgggctccagtgctgttattctagatgataactttgtaacaaaggccacagccctcacctatgacccctatgtaaactactcctcccgccataccataacccagcccttctcctaccactcccgctactttacccccaaacctgtcctagattccactattgattacttccaaccaaacaacaaaagaaatcagctgtggctgagactacaaactactggaaatgtagaccacgtaggcctcggcactgcgttcgaaaacagtatatacgaccaggaatacaatatccgtgtaaccatgtatgtacaattcagagaatttaatcttaaagaccccccacttaacccctaa', 'MTYPRRRYRRRRHRPRSHLGQILRRRPWLVHPRHRYRWRRKNGIFNTRLSRTFGYTIKRTTVKTPSWAVDMMRFNINDFLPPGGGSNPRSVPFEYYRIRKVKVEFWPCSPITQGDRGVGSSAVILDDNFVTKATALTYDPYVNYSSRHTITQPFSYHSRYFTPKPVLDSTIDYFQPNNKRNQLWLRLQTTGNVDHVGLGTAFENSIYDQEYNIRVTMYVQFREFNLKDPPLNP', 'right to left', '0', '1734', '1032', '702', 'accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt']</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>right to left</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>515</v>
-      </c>
-      <c r="I25" t="n">
-        <v>335</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>0.3559322033898305</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>['Porcine circovirus 2 isolate BR, complete genome.', 'Porcine circovirus 2', 'atgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactga', 'MYTSLWGHLGVVKANGLLILQTRKPHTGNHLETSGGMVTMVKKWLLLMTFMAGCPGMIY', 'left to right', '2', '552', '732', '180', 'accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt']</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>right to left</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>515</v>
-      </c>
-      <c r="I26" t="n">
-        <v>335</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>0.559322033898305</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>['Porcine circovirus 2 isolate BR, complete genome.', 'Porcine circovirus 2', 'atggtaaccatcccaccacttgtttctaggtggtttccagtatgtggtttccgggtctgcaaaattagcagcccatttgcttttaccacacccaggtggccccacaatgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctgagatctaggagctccacactccatcagtaa', 'MVTIPPLVSRWFPVCGFRVCKISSPFAFTTPRWPHNDVYISLPITLLHFPAHFQKFSQPAEISDKRYRVLLCNGHQTPALQQGTHSSRQVTPLSLRSRSSTLHQ', 'right to left', '1', '671', '356', '315', 'accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt']</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>right to left</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>515</v>
-      </c>
-      <c r="I27" t="n">
-        <v>335</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>0.9830508474576272</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>['Porcine circovirus 2 isolate BR, complete genome.', 'Porcine circovirus 2', 'atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga', 'MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP', 'right to left', '2', '565', '385', '180', 'accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt']</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>right to left</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>515</v>
-      </c>
-      <c r="I28" t="n">
-        <v>335</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>0.7288135593220338</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>['Porcine circovirus 2 isolate BR, complete genome.', 'Porcine circovirus 2', 'atgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactga', 'MPSKKNGRSGPQPHKRWVFTLNNPSEDERKKIRDLPISLFDYFIVGEEGNEEGRTPHLQGFANFVKKQTFNKVKWYLGARCHIEKAKGTDQQNKEYCSKEGNLLMECGAPRSQGQRSDLSTAVSTLLESGSLVTVAEQHPVTFVRNFRGLAELLKVSGKMQKRDWKTNVHVIVGPPGCGKSKWAANFADPETTYWKPPRNKWWDGYHGEEVVVIDDFYGWLPWDDLLRLCDRYPLTVETKGGTVPFLARSILITSNQTPLEWYSSTAVPAVEALYRRITSLVFWKNATEQSTEEGGQFVTLSPPCPEFPYEINY', 'left to right', '0', '50', '995', '945', 'accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt']</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>right to left</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>515</v>
-      </c>
-      <c r="I29" t="n">
-        <v>335</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>0.559322033898305</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctag', 'MRGRLPVPAPEAQRERARGDTACRHRRGQIYIYFHLENGLVTNPNFFGAVEVCHSSFFRDINAPKQCSPLNGGVICVEPWGGSGEKEEALSWVSAGSSRQKWFGGEVTAVFFFRSHNFTSGTFRIRVVLEPSVCGPGAV', 'left to right', '1', '1230', '1650', '420', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>right to left</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>515</v>
-      </c>
-      <c r="I30" t="n">
-        <v>335</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>0.4406779661016949</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atggggagcactgctttggagcatttatgtcccggaaaaaactggaatgacagacttctacggcaccaaagaagtttggattcgttacaagtccgttctctaagtgaaaataaatataaatctgacccctccggtggcgacaagccgtgtcccctcgcgcgcgctcccgctgcgcttcgggtgcgggcacaggtaaacgccctcgcatgtggggaccccatcccccacatgcttcggtgggggcgacaagccgtggctagggggctgcccacccaccctcccaataaatacccccaccccaacgcaataattgtacacaagtgcaaataa', 'MGSTALEHLCPGKNWNDRLLRHQRSLDSLQVRSLSENKYKSDPSGGDKPCPLARAPAALRVRAQVNALACGDPIPHMLRWGRQAVARGLPTHPPNKYPHPNAIIVHKCK', 'right to left', '2', '1438', '1108', '330', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>right to left</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>515</v>
-      </c>
-      <c r="I31" t="n">
-        <v>335</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>0.4406779661016949</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atgtctttctttacccccccctccccccaacaaacaaccttagtgaacctcctaaacaaggcctccaactttccacgaatattctccgatgaataccactcctccggtacaacattactagtaatatataataccttagccacaaaattaacaaacccacccttaacaggaaccctcagagggtacctgtccccaattctcagcaattcatcaaatggaacccacccataa', 'MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP', 'right to left', '1', '1078', '847', '231', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>right to left</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>515</v>
-      </c>
-      <c r="I32" t="n">
-        <v>335</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>0.423728813559322</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atgacaataaaagtccttatcttcaggacactcgtagcaccacaaaaactcagttatccagtccccgtcctgcggcatcaaaacacgaggccgcttcatcatccactgcccggtatatccactcacacggtgcggagcatccataatgggataccactttttctccctacagacctccgtggatccgggttccgaggtgccgggtaa', 'MTIKVLIFRTLVAPQKLSYPVPVLRHQNTRPLHHPLPGISTHTVRSIHNGIPLFLPTDLRGSGFRGAG', 'right to left', '1', '205', '-2', '207', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>right to left</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>515</v>
-      </c>
-      <c r="I33" t="n">
-        <v>335</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>0.5084745762711864</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactga', 'MDAPHRVSGYTGQWMMKRPRVLMPQDGDWITEFLWCYECPEDKDFYCHPILGPEGKPETQVVFYDKQLDPDRVGIYCGVWRQYSEIPYYRQRGWKKRYPTLARVREFQEQKATQLGEALTRIWSGPSGAGEGEPQRGQRVLQERGGLPRDWRRFLFGYQIGSSSSSSDSDGDVGKSD', 'left to right', '0', '61', '595', '534', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>right to left</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>515</v>
-      </c>
-      <c r="I34" t="n">
-        <v>335</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>0.6101694915254238</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atgagacacagagctatattcagaagaagaccccgcccaaggagacgacgacgccacagaaggcgctatgccagaagacgactattcattaggaggcccacagctggcacatactacacaaagaaatactccacaatgaacgtcatatccgttggaacccctcagaataacaagccctggcacgccaaccacttcattacccgcctaaacgaatgggaaactgcaattacctttgaatattataagatactaaaaatgaaagttacactcagccctgtaatttctccggctcagcaaacaaaaactatgttcgggcacacagccatagatctagacggcgcctggaccacaaacacttggctccaagacgacccttatgcggaaagttccactcgtaaagttatgacttctaaaaaaaaacacagccgttacttcacccccaaaccacttctggcgggaactaccagcgctcacccaggacaaagcctcttctttttctccagacccaccccatggctcaacacatatgaccccaccgttcaatggggagcactgctttggagcatttatgtcccggaaaaaactggaatgacagacttctacggcaccaaagaagtttggattcgttacaagtccgttctctaa', 'MRHRAIFRRRPRPRRRRRHRRRYARRRLFIRRPTAGTYYTKKYSTMNVISVGTPQNNKPWHANHFITRLNEWETAITFEYYKILKMKVTLSPVISPAQQTKTMFGHTAIDLDGAWTTNTWLQDDPYAESSTRKVMTSKKKHSRYFTPKPLLAGTTSAHPGQSLFFFSRPTPWLNTYDPTVQWGALLWSIYVPEKTGMTDFYGTKEVWIRYKSVL', 'right to left', '0', '1980', '1335', '645', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>right to left</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>515</v>
-      </c>
-      <c r="I35" t="n">
-        <v>335</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>0.5254237288135594</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattga', 'MPAVFIRYGRGLRDFCGVMGLGKPRDFKTEVYVFIGPPGCGKTREACADAAARELQLYFKPRGPWWDGYNGEGAVILDDFYGWVPFDELLRIGDRYPLRVPVKGGFVNFVAKVLYITSNVVPEEWYSSENIRGKLEALFRRFTKVVCWGEGGVKKDMETVYPINY', 'left to right', '0', '608', '1106', '498', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Porcine circovirus 2</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>atgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctga</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>right to left</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>515</v>
-      </c>
-      <c r="I36" t="n">
-        <v>335</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>0.4067796610169492</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>['Porcine circovirus 3 strain 29160, complete genome.', 'Porcine circovirus 3', 'atgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttga', 'MWGMGSPHARAFTCARTRSAAGARARGHGLSPPEGSDLYLFSLRERTCNESKLLWCRRSLSFQFFPGHKCSKAVLPIERWGHMC', 'left to right', '3', '1208', '1463', '255', 'acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt']</t>
+          <t>Porcine circovirus 3 strain 29160, complete genome.</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 3</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>atgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattga</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>MPAVFIRYGRGLRDFCGVMGLGKPRDFKTEVYVFIGPPGCGKTREACADAAARELQLYFKPRGPWWDGYNGEGAVILDDFYGWVPFDELLRIGDRYPLRVPVKGGFVNFVAKVLYITSNVVPEEWYSSENIRGKLEALFRRFTKVVCWGEGGVKKDMETVYPINY</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>left to right</t>
         </is>
       </c>
     </row>

--- a/AnalyzedORFS/exported_json_data.xlsx
+++ b/AnalyzedORFS/exported_json_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1029,10 +1029,8 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G7" t="n">
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>144</v>
@@ -1040,20 +1038,16 @@
       <c r="I7" t="n">
         <v>-63</v>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
+      <c r="J7" t="n">
+        <v>207</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0.6323529411764706</t>
-        </is>
+      <c r="L7" t="n">
+        <v>0.6323529411764706</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1075,25 +1069,17 @@
           <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>658</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>621</t>
-        </is>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>658</v>
+      </c>
+      <c r="S7" t="n">
+        <v>37</v>
+      </c>
+      <c r="T7" t="n">
+        <v>621</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -1108,7 +1094,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1135,10 +1121,8 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G8" t="n">
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>144</v>
@@ -1146,20 +1130,16 @@
       <c r="I8" t="n">
         <v>-63</v>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
+      <c r="J8" t="n">
+        <v>207</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>0.36764705882352944</t>
-        </is>
+      <c r="L8" t="n">
+        <v>0.3676470588235294</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1181,25 +1161,17 @@
           <t>MLTTSNSTSASSSPPQAAPTHYPYLSNTTVLERLNMNFTPETPSPLIKEVLGPLLLSWMPTL</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>1518</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>1329</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1518</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1329</v>
+      </c>
+      <c r="T8" t="n">
+        <v>189</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1214,7 +1186,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1241,10 +1213,8 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G9" t="n">
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>144</v>
@@ -1252,20 +1222,16 @@
       <c r="I9" t="n">
         <v>-63</v>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
+      <c r="J9" t="n">
+        <v>207</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0.4411764705882353</t>
-        </is>
+      <c r="L9" t="n">
+        <v>0.4411764705882353</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1287,25 +1253,17 @@
           <t>MTCTAVFQSRCCIFPLTFKSSASPRKFLTYVTGNCSATVTKDPVSKRVLTAVDKSLRFPWFRGAPHSISMWPSLLQYSLFCWSVPFAFSMWQRAPKYHFTLLKVCFLAKFANPWR</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>552</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>348</t>
-        </is>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>552</v>
+      </c>
+      <c r="S9" t="n">
+        <v>204</v>
+      </c>
+      <c r="T9" t="n">
+        <v>348</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1320,7 +1278,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1347,10 +1305,8 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G10" t="n">
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>144</v>
@@ -1358,20 +1314,16 @@
       <c r="I10" t="n">
         <v>-63</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
+      <c r="J10" t="n">
+        <v>207</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0.6764705882352942</t>
-        </is>
+      <c r="L10" t="n">
+        <v>0.6764705882352942</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1393,25 +1345,17 @@
           <t>MPSKKSGPQPHKRWVFTLNNPSEEEKNKIRELPISLFDYFVCGEEGLEEGRTPHLQGFANFAKKQTFNKVKWYFGARCHIEKAKGTDQQNKEYCSKEGHILIECGAPRNQGKRSDLSTAVSTLLETGSLVTVAEQFPVTYVRNFRGLAELLKVSGKMQQRDWKTAVHVIVGPPGCGKSQWARNFAEPSDTYWKPSRNKWWDGYHGEEVVVLDDFYGWLPWDDLLRLCDRYPLTVETKGGTVPFLARSILITSNQAPQEWYSSTAVPAVEALYRRITTLQFWKTAGEQSTEVPEGRFEAVDPPCALFPYKINY</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>985</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>939</t>
-        </is>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>46</v>
+      </c>
+      <c r="S10" t="n">
+        <v>985</v>
+      </c>
+      <c r="T10" t="n">
+        <v>939</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1426,7 +1370,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1453,10 +1397,8 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G11" t="n">
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>144</v>
@@ -1464,20 +1406,16 @@
       <c r="I11" t="n">
         <v>-63</v>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
+      <c r="J11" t="n">
+        <v>207</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0.39705882352941174</t>
-        </is>
+      <c r="L11" t="n">
+        <v>0.3970588235294117</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1499,25 +1437,17 @@
           <t>MEPQLVSFIIWVEPINCLVQLRFGGEVPGVVGKGLPYGVAGGVVNIGVIGQVGGGGYKVGIQDNNSGPNTSLIRGDGVSGVKFIFSLSNTVVLER</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>1162</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>1450</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1162</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1450</v>
+      </c>
+      <c r="T11" t="n">
+        <v>288</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1532,7 +1462,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1559,10 +1489,8 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G12" t="n">
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>144</v>
@@ -1570,20 +1498,16 @@
       <c r="I12" t="n">
         <v>-63</v>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
+      <c r="J12" t="n">
+        <v>207</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0.5882352941176471</t>
-        </is>
+      <c r="L12" t="n">
+        <v>0.5882352941176471</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1605,25 +1529,17 @@
           <t>MTYPRRRYRRRRHRPRSHLGQILRRRPWLVHPRHRYRWRRKNGIFNTRLSRTFGYTIKRTTVKTPSWAVDMMRFNINDFLPPGGGSNPRSVPFEYYRIRKVKVEFWPCSPITQGDRGVGSSAVILDDNFVTKATALTYDPYVNYSSRHTITQPFSYHSRYFTPKPVLDSTIDYFQPNNKRNQLWLRLQTTGNVDHVGLGTAFENSIYDQEYNIRVTMYVQFREFNLKDPPLNP</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>1734</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>1032</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>702</t>
-        </is>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1734</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1032</v>
+      </c>
+      <c r="T12" t="n">
+        <v>702</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1638,7 +1554,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1665,10 +1581,8 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G13" t="n">
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>144</v>
@@ -1676,20 +1590,16 @@
       <c r="I13" t="n">
         <v>-63</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
+      <c r="J13" t="n">
+        <v>207</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>0.45588235294117646</t>
-        </is>
+      <c r="L13" t="n">
+        <v>0.4558823529411764</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1711,25 +1621,17 @@
           <t>MVTIPPLVSRWFPVCGFRVCKISSPFAFTTPRWPHNDVYISLPITLLHFPAHFQKFSQPAEISDKRYRVLLCNGHQTPALQQGTHSSRQVTPLSLRSRSSTLHQ</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>671</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>356</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>671</v>
+      </c>
+      <c r="S13" t="n">
+        <v>356</v>
+      </c>
+      <c r="T13" t="n">
+        <v>315</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1744,7 +1646,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1771,10 +1673,8 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G14" t="n">
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>144</v>
@@ -1782,20 +1682,16 @@
       <c r="I14" t="n">
         <v>-63</v>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
+      <c r="J14" t="n">
+        <v>207</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>0.36764705882352944</t>
-        </is>
+      <c r="L14" t="n">
+        <v>0.3676470588235294</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1817,25 +1713,17 @@
           <t>MTCTLVFQSRFCIFPLTFKSSASPRKFLTNVTGCCSATVTRLPLSNKVLTAVDRSLRCP</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>565</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>385</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>565</v>
+      </c>
+      <c r="S14" t="n">
+        <v>385</v>
+      </c>
+      <c r="T14" t="n">
+        <v>180</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1850,7 +1738,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1877,10 +1765,8 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G15" t="n">
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>144</v>
@@ -1888,20 +1774,16 @@
       <c r="I15" t="n">
         <v>-63</v>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
+      <c r="J15" t="n">
+        <v>207</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>0.6617647058823529</t>
-        </is>
+      <c r="L15" t="n">
+        <v>0.6617647058823529</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1923,25 +1805,17 @@
           <t>MPSKKNGRSGPQPHKRWVFTLNNPSEDERKKIRDLPISLFDYFIVGEEGNEEGRTPHLQGFANFVKKQTFNKVKWYLGARCHIEKAKGTDQQNKEYCSKEGNLLMECGAPRSQGQRSDLSTAVSTLLESGSLVTVAEQHPVTFVRNFRGLAELLKVSGKMQKRDWKTNVHVIVGPPGCGKSKWAANFADPETTYWKPPRNKWWDGYHGEEVVVIDDFYGWLPWDDLLRLCDRYPLTVETKGGTVPFLARSILITSNQTPLEWYSSTAVPAVEALYRRITSLVFWKNATEQSTEEGGQFVTLSPPCPEFPYEINY</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>995</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>50</v>
+      </c>
+      <c r="S15" t="n">
+        <v>995</v>
+      </c>
+      <c r="T15" t="n">
+        <v>945</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1956,7 +1830,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1983,10 +1857,8 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G16" t="n">
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>144</v>
@@ -1994,20 +1866,16 @@
       <c r="I16" t="n">
         <v>-63</v>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
+      <c r="J16" t="n">
+        <v>207</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>0.4852941176470588</t>
-        </is>
+      <c r="L16" t="n">
+        <v>0.4852941176470588</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -2029,25 +1897,17 @@
           <t>MRGRLPVPAPEAQRERARGDTACRHRRGQIYIYFHLENGLVTNPNFFGAVEVCHSSFFRDINAPKQCSPLNGGVICVEPWGGSGEKEEALSWVSAGSSRQKWFGGEVTAVFFFRSHNFTSGTFRIRVVLEPSVCGPGAV</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>1230</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>1650</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>420</t>
-        </is>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1230</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1650</v>
+      </c>
+      <c r="T16" t="n">
+        <v>420</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -2062,7 +1922,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2089,10 +1949,8 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G17" t="n">
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>144</v>
@@ -2100,20 +1958,16 @@
       <c r="I17" t="n">
         <v>-63</v>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
+      <c r="J17" t="n">
+        <v>207</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>0.4264705882352941</t>
-        </is>
+      <c r="L17" t="n">
+        <v>0.4264705882352941</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -2135,25 +1989,17 @@
           <t>MGSTALEHLCPGKNWNDRLLRHQRSLDSLQVRSLSENKYKSDPSGGDKPCPLARAPAALRVRAQVNALACGDPIPHMLRWGRQAVARGLPTHPPNKYPHPNAIIVHKCK</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>1438</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>1108</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>330</t>
-        </is>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1438</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1108</v>
+      </c>
+      <c r="T17" t="n">
+        <v>330</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -2168,7 +2014,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2195,10 +2041,8 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G18" t="n">
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>144</v>
@@ -2206,20 +2050,16 @@
       <c r="I18" t="n">
         <v>-63</v>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
+      <c r="J18" t="n">
+        <v>207</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>0.39705882352941174</t>
-        </is>
+      <c r="L18" t="n">
+        <v>0.3970588235294117</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -2241,25 +2081,17 @@
           <t>MSFFTPPSPQQTTLVNLLNKASNFPRIFSDEYHSSGTTLLVIYNTLATKLTNPPLTGTLRGYLSPILSNSSNGTHP</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>1078</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>847</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1078</v>
+      </c>
+      <c r="S18" t="n">
+        <v>847</v>
+      </c>
+      <c r="T18" t="n">
+        <v>231</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -2274,7 +2106,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2301,10 +2133,8 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G19" t="n">
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>144</v>
@@ -2312,20 +2142,16 @@
       <c r="I19" t="n">
         <v>-63</v>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
+      <c r="J19" t="n">
+        <v>207</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>0.9852941176470589</t>
-        </is>
+      <c r="L19" t="n">
+        <v>0.9852941176470588</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2347,25 +2173,17 @@
           <t>MTIKVLIFRTLVAPQKLSYPVPVLRHQNTRPLHHPLPGISTHTVRSIHNGIPLFLPTDLRGSGFRGAG</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>205</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>205</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T19" t="n">
+        <v>207</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -2380,7 +2198,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2407,10 +2225,8 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G20" t="n">
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>144</v>
@@ -2418,20 +2234,16 @@
       <c r="I20" t="n">
         <v>-63</v>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
+      <c r="J20" t="n">
+        <v>207</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>0.5294117647058824</t>
-        </is>
+      <c r="L20" t="n">
+        <v>0.5294117647058824</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2453,25 +2265,17 @@
           <t>MDAPHRVSGYTGQWMMKRPRVLMPQDGDWITEFLWCYECPEDKDFYCHPILGPEGKPETQVVFYDKQLDPDRVGIYCGVWRQYSEIPYYRQRGWKKRYPTLARVREFQEQKATQLGEALTRIWSGPSGAGEGEPQRGQRVLQERGGLPRDWRRFLFGYQIGSSSSSSDSDGDVGKSD</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>595</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>534</t>
-        </is>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>61</v>
+      </c>
+      <c r="S20" t="n">
+        <v>595</v>
+      </c>
+      <c r="T20" t="n">
+        <v>534</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2486,7 +2290,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2513,10 +2317,8 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G21" t="n">
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>144</v>
@@ -2524,20 +2326,16 @@
       <c r="I21" t="n">
         <v>-63</v>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
+      <c r="J21" t="n">
+        <v>207</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>0.5588235294117647</t>
-        </is>
+      <c r="L21" t="n">
+        <v>0.5588235294117647</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2559,25 +2357,17 @@
           <t>MRHRAIFRRRPRPRRRRRHRRRYARRRLFIRRPTAGTYYTKKYSTMNVISVGTPQNNKPWHANHFITRLNEWETAITFEYYKILKMKVTLSPVISPAQQTKTMFGHTAIDLDGAWTTNTWLQDDPYAESSTRKVMTSKKKHSRYFTPKPLLAGTTSAHPGQSLFFFSRPTPWLNTYDPTVQWGALLWSIYVPEKTGMTDFYGTKEVWIRYKSVL</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>1335</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>645</t>
-        </is>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1980</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1335</v>
+      </c>
+      <c r="T21" t="n">
+        <v>645</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2592,7 +2382,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2619,10 +2409,8 @@
           <t>right to left</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G22" t="n">
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>144</v>
@@ -2630,20 +2418,16 @@
       <c r="I22" t="n">
         <v>-63</v>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
+      <c r="J22" t="n">
+        <v>207</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>0.4852941176470588</t>
-        </is>
+      <c r="L22" t="n">
+        <v>0.4852941176470588</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2665,32 +2449,1474 @@
           <t>MPAVFIRYGRGLRDFCGVMGLGKPRDFKTEVYVFIGPPGCGKTREACADAAARELQLYFKPRGPWWDGYNGEGAVILDDFYGWVPFDELLRIGDRYPLRVPVKGGFVNFVAKVLYITSNVVPEEWYSSENIRGKLEALFRRFTKVVCWGEGGVKKDMETVYPINY</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>608</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1106</v>
+      </c>
+      <c r="T22" t="n">
+        <v>498</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>left to right</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>612</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-9</v>
+      </c>
+      <c r="J23" t="n">
+        <v>621</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>0.9951456310679612</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>658</v>
+      </c>
+      <c r="S23" t="n">
+        <v>37</v>
+      </c>
+      <c r="T23" t="n">
+        <v>621</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>612</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>621</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>0.4514563106796116</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>atgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactga</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>MPSKKSGPQPHKRWVFTLNNPSEEEKNKIRELPISLFDYFVCGEEGLEEGRTPHLQGFANFAKKQTFNKVKWYFGARCHIEKAKGTDQQNKEYCSKEGHILIECGAPRNQGKRSDLSTAVSTLLETGSLVTVAEQFPVTYVRNFRGLAELLKVSGKMQQRDWKTAVHVIVGPPGCGKSQWARNFAEPSDTYWKPSRNKWWDGYHGEEVVVLDDFYGWLPWDDLLRLCDRYPLTVETKGGTVPFLARSILITSNQAPQEWYSSTAVPAVEALYRRITTLQFWKTAGEQSTEVPEGRFEAVDPPCALFPYKINY</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>46</v>
+      </c>
+      <c r="S24" t="n">
+        <v>985</v>
+      </c>
+      <c r="T24" t="n">
+        <v>939</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>left to right</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>612</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-9</v>
+      </c>
+      <c r="J25" t="n">
+        <v>621</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3592233009708738</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>atgacgtatccaaggaggcgttaccggagaagaagacaccgcccccgcagccatcttggccagatcctccgccgccgcccctggctcgtccacccccgccaccgttaccgctggagaaggaaaaatggcatcttcaacacccgcctctcccgcaccttcggatatactatcaagcgaaccacagtcaaaacgccctcctgggcggtggacatgatgagattcaatattaatgactttcttcccccaggagggggctcaaacccccgctctgtgccctttgaatactacagaataagaaaggttaaggttgaattctggccctgctccccgatcacccagggtgacaggggagtgggctccagtgctgttattctagatgataactttgtaacaaaggccacagccctcacctatgacccctatgtaaactactcctcccgccataccataacccagcccttctcctaccactcccgctactttacccccaaacctgtcctagattccactattgattacttccaaccaaacaacaaaagaaatcagctgtggctgagactacaaactactggaaatgtagaccacgtaggcctcggcactgcgttcgaaaacagtatatacgaccaggaatacaatatccgtgtaaccatgtatgtacaattcagagaatttaatcttaaagaccccccacttaacccctaa</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>MTYPRRRYRRRRHRPRSHLGQILRRRPWLVHPRHRYRWRRKNGIFNTRLSRTFGYTIKRTTVKTPSWAVDMMRFNINDFLPPGGGSNPRSVPFEYYRIRKVKVEFWPCSPITQGDRGVGSSAVILDDNFVTKATALTYDPYVNYSSRHTITQPFSYHSRYFTPKPVLDSTIDYFQPNNKRNQLWLRLQTTGNVDHVGLGTAFENSIYDQEYNIRVTMYVQFREFNLKDPPLNP</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1734</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1032</v>
+      </c>
+      <c r="T25" t="n">
+        <v>702</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>612</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-9</v>
+      </c>
+      <c r="J26" t="n">
+        <v>621</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>0.3640776699029126</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>atggtaaccatcccaccacttgtttctaggtggtttccagtatgtggtttccgggtctgcaaaattagcagcccatttgcttttaccacacccaggtggccccacaatgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctgagatctaggagctccacactccatcagtaa</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>MVTIPPLVSRWFPVCGFRVCKISSPFAFTTPRWPHNDVYISLPITLLHFPAHFQKFSQPAEISDKRYRVLLCNGHQTPALQQGTHSSRQVTPLSLRSRSSTLHQ</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>671</v>
+      </c>
+      <c r="S26" t="n">
+        <v>356</v>
+      </c>
+      <c r="T26" t="n">
+        <v>315</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>612</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>621</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>0.4320388349514563</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>atgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactga</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>MPSKKNGRSGPQPHKRWVFTLNNPSEDERKKIRDLPISLFDYFIVGEEGNEEGRTPHLQGFANFVKKQTFNKVKWYLGARCHIEKAKGTDQQNKEYCSKEGNLLMECGAPRSQGQRSDLSTAVSTLLESGSLVTVAEQHPVTFVRNFRGLAELLKVSGKMQKRDWKTNVHVIVGPPGCGKSKWAANFADPETTYWKPPRNKWWDGYHGEEVVVIDDFYGWLPWDDLLRLCDRYPLTVETKGGTVPFLARSILITSNQTPLEWYSSTAVPAVEALYRRITSLVFWKNATEQSTEEGGQFVTLSPPCPEFPYEINY</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>50</v>
+      </c>
+      <c r="S27" t="n">
+        <v>995</v>
+      </c>
+      <c r="T27" t="n">
+        <v>945</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>left to right</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>612</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-9</v>
+      </c>
+      <c r="J28" t="n">
+        <v>621</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>0.9951456310679612</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>658</v>
+      </c>
+      <c r="S28" t="n">
+        <v>37</v>
+      </c>
+      <c r="T28" t="n">
+        <v>621</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>612</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-9</v>
+      </c>
+      <c r="J29" t="n">
+        <v>621</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>0.4514563106796116</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>atgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactga</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>MPSKKSGPQPHKRWVFTLNNPSEEEKNKIRELPISLFDYFVCGEEGLEEGRTPHLQGFANFAKKQTFNKVKWYFGARCHIEKAKGTDQQNKEYCSKEGHILIECGAPRNQGKRSDLSTAVSTLLETGSLVTVAEQFPVTYVRNFRGLAELLKVSGKMQQRDWKTAVHVIVGPPGCGKSQWARNFAEPSDTYWKPSRNKWWDGYHGEEVVVLDDFYGWLPWDDLLRLCDRYPLTVETKGGTVPFLARSILITSNQAPQEWYSSTAVPAVEALYRRITTLQFWKTAGEQSTEVPEGRFEAVDPPCALFPYKINY</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>46</v>
+      </c>
+      <c r="S29" t="n">
+        <v>985</v>
+      </c>
+      <c r="T29" t="n">
+        <v>939</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>left to right</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>612</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>621</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>0.3592233009708738</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>atgacgtatccaaggaggcgttaccggagaagaagacaccgcccccgcagccatcttggccagatcctccgccgccgcccctggctcgtccacccccgccaccgttaccgctggagaaggaaaaatggcatcttcaacacccgcctctcccgcaccttcggatatactatcaagcgaaccacagtcaaaacgccctcctgggcggtggacatgatgagattcaatattaatgactttcttcccccaggagggggctcaaacccccgctctgtgccctttgaatactacagaataagaaaggttaaggttgaattctggccctgctccccgatcacccagggtgacaggggagtgggctccagtgctgttattctagatgataactttgtaacaaaggccacagccctcacctatgacccctatgtaaactactcctcccgccataccataacccagcccttctcctaccactcccgctactttacccccaaacctgtcctagattccactattgattacttccaaccaaacaacaaaagaaatcagctgtggctgagactacaaactactggaaatgtagaccacgtaggcctcggcactgcgttcgaaaacagtatatacgaccaggaatacaatatccgtgtaaccatgtatgtacaattcagagaatttaatcttaaagaccccccacttaacccctaa</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>MTYPRRRYRRRRHRPRSHLGQILRRRPWLVHPRHRYRWRRKNGIFNTRLSRTFGYTIKRTTVKTPSWAVDMMRFNINDFLPPGGGSNPRSVPFEYYRIRKVKVEFWPCSPITQGDRGVGSSAVILDDNFVTKATALTYDPYVNYSSRHTITQPFSYHSRYFTPKPVLDSTIDYFQPNNKRNQLWLRLQTTGNVDHVGLGTAFENSIYDQEYNIRVTMYVQFREFNLKDPPLNP</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1734</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1032</v>
+      </c>
+      <c r="T30" t="n">
+        <v>702</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>612</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-9</v>
+      </c>
+      <c r="J31" t="n">
+        <v>621</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>0.3640776699029126</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>atggtaaccatcccaccacttgtttctaggtggtttccagtatgtggtttccgggtctgcaaaattagcagcccatttgcttttaccacacccaggtggccccacaatgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctgagatctaggagctccacactccatcagtaa</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>MVTIPPLVSRWFPVCGFRVCKISSPFAFTTPRWPHNDVYISLPITLLHFPAHFQKFSQPAEISDKRYRVLLCNGHQTPALQQGTHSSRQVTPLSLRSRSSTLHQ</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>671</v>
+      </c>
+      <c r="S31" t="n">
+        <v>356</v>
+      </c>
+      <c r="T31" t="n">
+        <v>315</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>612</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-9</v>
+      </c>
+      <c r="J32" t="n">
+        <v>621</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>0.4320388349514563</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>atgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactga</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>MPSKKNGRSGPQPHKRWVFTLNNPSEDERKKIRDLPISLFDYFIVGEEGNEEGRTPHLQGFANFVKKQTFNKVKWYLGARCHIEKAKGTDQQNKEYCSKEGNLLMECGAPRSQGQRSDLSTAVSTLLESGSLVTVAEQHPVTFVRNFRGLAELLKVSGKMQKRDWKTNVHVIVGPPGCGKSKWAANFADPETTYWKPPRNKWWDGYHGEEVVVIDDFYGWLPWDDLLRLCDRYPLTVETKGGTVPFLARSILITSNQTPLEWYSSTAVPAVEALYRRITSLVFWKNATEQSTEEGGQFVTLSPPCPEFPYEINY</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>50</v>
+      </c>
+      <c r="S32" t="n">
+        <v>995</v>
+      </c>
+      <c r="T32" t="n">
+        <v>945</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>left to right</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>612</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-9</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>0.9951456310679612</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>612</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-9</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>0.45145631067961167</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>atgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactga</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>MPSKKSGPQPHKRWVFTLNNPSEEEKNKIRELPISLFDYFVCGEEGLEEGRTPHLQGFANFAKKQTFNKVKWYFGARCHIEKAKGTDQQNKEYCSKEGHILIECGAPRNQGKRSDLSTAVSTLLETGSLVTVAEQFPVTYVRNFRGLAELLKVSGKMQQRDWKTAVHVIVGPPGCGKSQWARNFAEPSDTYWKPSRNKWWDGYHGEEVVVLDDFYGWLPWDDLLRLCDRYPLTVETKGGTVPFLARSILITSNQAPQEWYSSTAVPAVEALYRRITTLQFWKTAGEQSTEVPEGRFEAVDPPCALFPYKINY</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>608</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>1106</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>498</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>acccggcacctcggaacccggatccacggaggtctgtagggagaaaaagtggtatcccattatggatgctccgcaccgtgtgagtggatataccgggcagtggatgatgaagcggcctcgtgttttgatgccgcaggacggggactggataactgagtttttgtggtgctacgagtgtcctgaagataaggacttttattgtcatcctattctaggtccggagggaaagcccgaaacacaggtggtgttttacgataaacaactggaccccgaccgagtgggaatctattgtggagtgtggaggcagtatagcgagataccttattatcggcaaagaggttggaaaaagcggtaccccacacttgcaagggtacgtgaatttcaagaacaaaaggcgactcagctcggtgaagcgcttacccggatttggtcgggcccatctggagccggcgagggggagccacaaagaggccagcgagtattgcaagaaagagggggattacctcgagattggcgaagattcctcttcgggtaccagatcggatcttcaagcagcagctcggattctgacggagacgtcgggaaatctgactgaagttgcggagaagatgcctgcagtatttatacgctatgggcggggtttgcgtgatttttgcggggtgatggggttgggtaaaccgcgtgattttaaaactgaagtttatgtttttattggtcctccaggatgcgggaaaacgcgggaagcttgtgcggatgcggctgcgcgggaattgcagttgtatttcaagccacgggggccttggtgggatggttataatggggagggtgctgttattttggatgatttttatgggtgggttccatttgatgaattgctgagaattggggacaggtaccctctgagggttcctgttaagggtgggtttgttaattttgtggctaaggtattatatattactagtaatgttgtaccggaggagtggtattcatcggagaatattcgtggaaagttggaggccttgtttaggaggttcactaaggttgtttgttggggggaggggggggtaaagaaagacatggagacagtgtatccaataaactattgattttatttgcacttgtgtacaattattgcgttggggtgggggtatttattgggagggtgggtgggcagccccctagccacggcttgtcgcccccaccgaagcatgtgggggatggggtccccacatgcgagggcgtttacctgtgcccgcacccgaagcgcagcgggagcgcgcgcgaggggacacggcttgtcgccaccggaggggtcagatttatatttattttcacttagagaacggacttgtaacgaatccaaacttctttggtgccgtagaagtctgtcattccagttttttccgggacataaatgctccaaagcagtgctccccattgaacggtggggtcatatgtgttgagccatggggtgggtctggagaaaaagaagaggctttgtcctgggtgagcgctggtagttcccgccagaagtggtttgggggtgaagtaacggctgtgtttttttttagaagtcataactttacgagtggaactttccgcataagggtcgtcttggagccaagtgtttgtggtccaggcgccgtctagatctatggctgtgtgcccgaacatagtttttgtttgctgagccggagaaattacagggctgagtgtaactttcatttttagtatcttataatattcaaaggtaattgcagtttcccattcgtttaggcgggtaatgaagtggttggcgtgccagggcttgttattctgaggggttccaacggatatgacgttcattgtggagtatttctttgtgtagtatgtgccagctgtgggcctcctaatgaatagtcgtcttctggcatagcgccttctgtggcgtcgtcgtctccttgggcggggtcttcttctgaatatagctctgtgtctcattttggtgccgggctagtatt</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>left to right</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>612</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-9</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>0.3592233009708738</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>atgacgtatccaaggaggcgttaccggagaagaagacaccgcccccgcagccatcttggccagatcctccgccgccgcccctggctcgtccacccccgccaccgttaccgctggagaaggaaaaatggcatcttcaacacccgcctctcccgcaccttcggatatactatcaagcgaaccacagtcaaaacgccctcctgggcggtggacatgatgagattcaatattaatgactttcttcccccaggagggggctcaaacccccgctctgtgccctttgaatactacagaataagaaaggttaaggttgaattctggccctgctccccgatcacccagggtgacaggggagtgggctccagtgctgttattctagatgataactttgtaacaaaggccacagccctcacctatgacccctatgtaaactactcctcccgccataccataacccagcccttctcctaccactcccgctactttacccccaaacctgtcctagattccactattgattacttccaaccaaacaacaaaagaaatcagctgtggctgagactacaaactactggaaatgtagaccacgtaggcctcggcactgcgttcgaaaacagtatatacgaccaggaatacaatatccgtgtaaccatgtatgtacaattcagagaatttaatcttaaagaccccccacttaacccctaa</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>MTYPRRRYRRRRHRPRSHLGQILRRRPWLVHPRHRYRWRRKNGIFNTRLSRTFGYTIKRTTVKTPSWAVDMMRFNINDFLPPGGGSNPRSVPFEYYRIRKVKVEFWPCSPITQGDRGVGSSAVILDDNFVTKATALTYDPYVNYSSRHTITQPFSYHSRYFTPKPVLDSTIDYFQPNNKRNQLWLRLQTTGNVDHVGLGTAFENSIYDQEYNIRVTMYVQFREFNLKDPPLNP</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>1734</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>1032</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>702</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>612</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-9</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0.3640776699029126</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>atggtaaccatcccaccacttgtttctaggtggtttccagtatgtggtttccgggtctgcaaaattagcagcccatttgcttttaccacacccaggtggccccacaatgacgtgtacattagtcttccaatcacgcttctgcattttcccgctcactttcaaaagttcagccagcccgcggaaatttctgacaaacgttacagggtgctgctctgcaacggtcaccagactcccgctctccaacaaggtactcacagcagtagacaggtcactccgttgtccctgagatctaggagctccacactccatcagtaa</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>MVTIPPLVSRWFPVCGFRVCKISSPFAFTTPRWPHNDVYISLPITLLHFPAHFQKFSQPAEISDKRYRVLLCNGHQTPALQQGTHSSRQVTPLSLRSRSSTLHQ</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1 isolate PCV1-XFD-Beijing, complete genome.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>atgatatccatcccaccacttatttctactaggcttccagtaggtgtcgctaggctcagcaaaattacgggcccactggctcttcccacaaccgggcgggcccactatgacgtgtacagctgtcttccaatcacgctgctgcatcttcccgctcactttcaaaagttcagccagcccgcggaaatttctcacatacgttacagggaactgctcggctacagtcaccaaagaccccgtctccaaaagggtactcacagcagtagacaagtcgctgcgcttcccctggttccgcggagctccacactcgataagtatgtggccttctttactgcagtattctttattctgctggtcggttcctttcgctttctcgatgtggcagcgggcaccaaaataccacttcaccttgttaaaagtctgcttcttagcaaaattcgcaaacccctggaggtgaggagttctaccctcttccaaaccttcctctccgcaaacaaaataatcaaaaagggagattggaagctcccgtattttgtttttctcctcctcggaaggattattaagggtgaacacccacctcttatggggttgcgggccgcttttcttgcttggcattttcactga</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>MISIPPLISTRLPVGVARLSKITGPLALPTTGRAHYDVYSCLPITLLHLPAHFQKFSQPAEISHIRYRELLGYSHQRPRLQKGTHSSRQVAALPLVPRSSTLDKYVAFFTAVFFILLVGSFRFLDVAAGTKIPLHLVKSLLLSKIRKPLEVRSSTLFQTFLSANKIIKKGDWKLPYFVFLLLGRIIKGEHPPLMGLRAAFLAWHFH</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>right to left</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>612</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-9</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcgtcagtgaaaatgccaagcaagaaaagcggcccgcaaccccataagaggtgggtgttcacccttaataatccttccgaggaggagaaaaacaaaatacgggagcttccaatctccctttttgattattttgtttgcggagaggaaggtttggaagagggtagaactcctcacctccaggggtttgcgaattttgctaagaagcagacttttaacaaggtgaagtggtattttggtgcccgctgccacatcgagaaagcgaaaggaaccgaccagcagaataaagaatactgcagtaaagaaggccacatacttatcgagtgtggagctccgcggaaccaggggaagcgcagcgacttgtctactgctgtgagtacccttttggagacggggtctttggtgactgtagccgagcagttccctgtaacgtatgtgagaaatttccgcgggctggctgaacttttgaaagtgagcgggaagatgcagcagcgtgattggaagacagctgtacacgtcatagtgggcccgcccggttgtgggaagagccagtgggcccgtaattttgctgagcctagcgacacctactggaagcctagtagaaataagtggtgggatggatatcatggagaagaagttgttgttttggatgatttttatggctggttaccttgggatgatctactgagactgtgtgaccggtatccattgactgtagagactaaagggggtactgttccttttttggcccgcagtattttgattaccagcaatcaggccccccaggaatggtactcctcaactgctgtcccagctgtagaagctctctatcggaggattactactttgcaattttggaagactgctggagaacaatccacggaggtacccgaaggccgatttgaagcagtggacccaccctgtgcccttttcccatataaaataaattactgagtcttttttgttatcacatcgtaatggtttttatttttatttatttagagggtcttttaggataaattctctgaattgtacataaatagtcagccttaccacataattttgggctgtggctgcattttggagcgcatagccgaggcctgtgtgctcgacattggtgtgggtatttaaatggagccacagctggtttcttttattatttgggtggaaccaatcaattgtttggtccagctcaggtttgggggtgaagtacctggagtggtaggtaaagggctgccttatggtgtggcgggaggagtagttaatataggggtcataggccaagttggtggagggggttacaaagttggcatccaagataacaacagtggacccaacacctctttgattagaggtgatggggtctctggggtaaaattcatatttagcctttctaatacggtagtattggaaaggtaggggtagtgggttggtgccgcctgagggggggaggaactggccgatgttgaatttgaggtggttaacattccaagatggctgcgagtatcctccttttatggtgagtacaaattctctagaaaggcgggaattgaagatacccgtctttcggcgccatctgtaacggtttctgaaggcggggtgtgccaaatatggtcttctccggaggatgtttccaagatggctgcgggggcgggtccttcttctgcggtaacgcctccttggccacgtcatcctataaaagtgaaagaagtgcgctgctgtagtatt</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>0.4320388349514563</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2 isolate BR, complete genome.</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Porcine circovirus 2</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>atgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactga</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>MPSKKNGRSGPQPHKRWVFTLNNPSEDERKKIRDLPISLFDYFIVGEEGNEEGRTPHLQGFANFVKKQTFNKVKWYLGARCHIEKAKGTDQQNKEYCSKEGNLLMECGAPRSQGQRSDLSTAVSTLLESGSLVTVAEQHPVTFVRNFRGLAELLKVSGKMQKRDWKTNVHVIVGPPGCGKSKWAANFADPETTYWKPPRNKWWDGYHGEEVVVIDDFYGWLPWDDLLRLCDRYPLTVETKGGTVPFLARSILITSNQTPLEWYSSTAVPAVEALYRRITSLVFWKNATEQSTEEGGQFVTLSPPCPEFPYEINY</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>accagcgcacttcggcagcggcagcacctcggcagcagctcggcagcaacatgcccagcaagaagaatggaagaagcggaccccaaccccataaaaggtgggtgttcacactgaataatccttccgaagacgagcgcaagaaaatacgggatcttccaatatccctatttgattattttattgttggcgaggagggtaatgaggaaggacgaacacctcacctccaggggttcgctaattttgtgaagaagcagacttttaataaagtgaagtggtatttgggtgcccgctgccacatcgagaaagcgaaaggaacagatcagcagaataaagaatactgcagtaaagaaggcaacttactgatggagtgtggagctcctagatctcagggacaacggagtgacctgtctactgctgtgagtaccttgttggagagcgggagtctggtgaccgttgcagagcagcaccctgtaacgtttgtcagaaatttccgcgggctggctgaacttttgaaagtgagcgggaaaatgcagaagcgtgattggaagactaatgtacacgtcattgtggggccacctgggtgtggtaaaagcaaatgggctgctaattttgcagacccggaaaccacatactggaaaccacctagaaacaagtggtgggatggttaccatggtgaagaagtggttgttattgatgacttttatggctggctgccctgggatgatctactgagactgtgtgatcgatatccattgactgtagagactaaaggtggaactgtaccttttttggcccgcagtattctgattaccagcaatcagaccccgttggaatggtactcctcaactgctgtcccagctgtagaagctctttatcggaggattacttccttggtattttggaagaatgctacagaacaatccacggaggaagggggccagttcgtcaccctttcccccccatgccctgaatttccatatgaaataaattactgagtcttttttatcacttcgtaatggtttttattattcattaggggttaagtggggggtctttaagattaaattctctgaattgtacatacatggttacacggatattgtattcctggtcgtatatactgttttcgaacgcagtgccgaggcctacgtggtctacatttccagtagtttgtagtctcagccacagctgatttcttttgttgtttggttggaagtaatcaatagtggaatctaggacaggtttgggggtaaagtagcgggagtggtaggagaagggctgggttatggtatggcgggaggagtagtttacataggggtcataggtgagggctgtggcctttgttacaaagttatcatctagaataacagcactggagcccactcccctgtcaccctgggtgatcggggagcagggccagaattcaaccttaacctttcttattctgtagtattcaaagggcacagagcgggggtttgagccccctcctgggggaagaaagtcattaatattgaatctcatcatgtccaccgcccaggagggcgttttgactgtggttcgcttgatagtatatccgaaggtgcgggagaggcgggtgttgaagatgccatttttccttctccagcggtaacggtggcgggggtggacgagccaggggcggcggcggaggatctggccaagatggctgcgggggcggtgtcttcttctccggtaacgcctccttggatacgtcatatctgaaaacgaaagaagtgcgctgtaagtatt</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
         <is>
           <t>left to right</t>
         </is>
